--- a/population and Residential Floor.xlsx
+++ b/population and Residential Floor.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shengnian/Work/GEI 2018/2018-01/population and residential floor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shengnian/Documents/GitHub/population-and-residential-floor/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="population" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="160">
   <si>
     <t>人口出生率 /1000人</t>
   </si>
@@ -320,6 +320,228 @@
   <si>
     <t>朝鲜战争</t>
   </si>
+  <si>
+    <t>办公楼</t>
+  </si>
+  <si>
+    <t>商业营业</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>商品房销售额(亿元)</t>
+  </si>
+  <si>
+    <t>住宅平均售价(元)/单位平米</t>
+  </si>
+  <si>
+    <t>总房屋价值(亿元)(住宅)</t>
+  </si>
+  <si>
+    <t>GDP(China)</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>GDP (current LCU)</t>
+  </si>
+  <si>
+    <t>NY.GDP.MKTP.CN</t>
+  </si>
+  <si>
+    <t>Country Name</t>
+  </si>
+  <si>
+    <t>Country Code</t>
+  </si>
+  <si>
+    <t>Indicator Name</t>
+  </si>
+  <si>
+    <t>Indicator Code</t>
+  </si>
+  <si>
+    <t>1960</t>
+  </si>
+  <si>
+    <t>1961</t>
+  </si>
+  <si>
+    <t>1962</t>
+  </si>
+  <si>
+    <t>1963</t>
+  </si>
+  <si>
+    <t>1964</t>
+  </si>
+  <si>
+    <t>1965</t>
+  </si>
+  <si>
+    <t>1966</t>
+  </si>
+  <si>
+    <t>1967</t>
+  </si>
+  <si>
+    <t>1968</t>
+  </si>
+  <si>
+    <t>1969</t>
+  </si>
+  <si>
+    <t>1970</t>
+  </si>
+  <si>
+    <t>1971</t>
+  </si>
+  <si>
+    <t>1972</t>
+  </si>
+  <si>
+    <t>1973</t>
+  </si>
+  <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>1975</t>
+  </si>
+  <si>
+    <t>1976</t>
+  </si>
+  <si>
+    <t>1977</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>比例：</t>
+  </si>
 </sst>
 </file>
 
@@ -522,7 +744,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -570,11 +792,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -585,7 +808,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1121,11 +1344,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2046285776"/>
-        <c:axId val="-2082168704"/>
+        <c:axId val="-2131201760"/>
+        <c:axId val="-2131194848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2046285776"/>
+        <c:axId val="-2131201760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1168,7 +1391,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2082168704"/>
+        <c:crossAx val="-2131194848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1176,7 +1399,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2082168704"/>
+        <c:axId val="-2131194848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1227,7 +1450,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2046285776"/>
+        <c:crossAx val="-2131201760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1881,11 +2104,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2125518208"/>
-        <c:axId val="-2029948336"/>
+        <c:axId val="-2131121616"/>
+        <c:axId val="-2131118544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2125518208"/>
+        <c:axId val="-2131121616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1928,7 +2151,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2029948336"/>
+        <c:crossAx val="-2131118544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1936,7 +2159,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2029948336"/>
+        <c:axId val="-2131118544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2076,7 +2299,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2125518208"/>
+        <c:crossAx val="-2131121616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2655,8 +2878,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2107608096"/>
-        <c:axId val="2063152496"/>
+        <c:axId val="-2132897472"/>
+        <c:axId val="-2131115872"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3120,11 +3343,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2022771568"/>
-        <c:axId val="-2023386080"/>
+        <c:axId val="-2131139264"/>
+        <c:axId val="-2131137408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2107608096"/>
+        <c:axId val="-2132897472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3231,7 +3454,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2063152496"/>
+        <c:crossAx val="-2131115872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3239,7 +3462,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2063152496"/>
+        <c:axId val="-2131115872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3362,12 +3585,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2107608096"/>
+        <c:crossAx val="-2132897472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2023386080"/>
+        <c:axId val="-2131137408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3376,7 +3599,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -3418,7 +3641,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -3469,12 +3692,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2022771568"/>
+        <c:crossAx val="-2131139264"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2022771568"/>
+        <c:axId val="-2131139264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3484,7 +3707,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2023386080"/>
+        <c:crossAx val="-2131137408"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3582,6 +3806,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3786,11 +4011,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2109354256"/>
-        <c:axId val="-2045152384"/>
+        <c:axId val="-2130972352"/>
+        <c:axId val="-2130966064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2109354256"/>
+        <c:axId val="-2130972352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3833,7 +4058,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2045152384"/>
+        <c:crossAx val="-2130966064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3841,7 +4066,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2045152384"/>
+        <c:axId val="-2130966064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3892,7 +4117,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2109354256"/>
+        <c:crossAx val="-2130972352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3994,6 +4219,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4326,11 +4552,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2066536400"/>
-        <c:axId val="-2065752128"/>
+        <c:axId val="-2133996784"/>
+        <c:axId val="-2130917008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2066536400"/>
+        <c:axId val="-2133996784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4373,7 +4599,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2065752128"/>
+        <c:crossAx val="-2130917008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4382,7 +4608,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2065752128"/>
+        <c:axId val="-2130917008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4433,7 +4659,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2066536400"/>
+        <c:crossAx val="-2133996784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4535,6 +4761,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4857,11 +5084,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2029976176"/>
-        <c:axId val="-2029749920"/>
+        <c:axId val="-2133340512"/>
+        <c:axId val="-2133346352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2029976176"/>
+        <c:axId val="-2133340512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4904,7 +5131,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2029749920"/>
+        <c:crossAx val="-2133346352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4912,7 +5139,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2029749920"/>
+        <c:axId val="-2133346352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4963,7 +5190,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2029976176"/>
+        <c:crossAx val="-2133340512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8375,13 +8602,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8411,7 +8638,7 @@
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8729,9 +8956,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:BT59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN34" sqref="AN34"/>
+    <sheetView topLeftCell="A33" zoomScale="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AR37" sqref="AR37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8785,19 +9012,19 @@
       <c r="AR8" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="AS8" s="35" t="s">
+      <c r="AS8" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="AT8" s="36"/>
-      <c r="AU8" s="36"/>
-      <c r="AV8" s="36"/>
-      <c r="AW8" s="36"/>
-      <c r="AX8" s="36"/>
-      <c r="AY8" s="36"/>
-      <c r="AZ8" s="36"/>
-      <c r="BA8" s="36"/>
-      <c r="BB8" s="36"/>
-      <c r="BC8" s="37"/>
+      <c r="AT8" s="37"/>
+      <c r="AU8" s="37"/>
+      <c r="AV8" s="37"/>
+      <c r="AW8" s="37"/>
+      <c r="AX8" s="37"/>
+      <c r="AY8" s="37"/>
+      <c r="AZ8" s="37"/>
+      <c r="BA8" s="37"/>
+      <c r="BB8" s="37"/>
+      <c r="BC8" s="38"/>
       <c r="BH8" s="34" t="s">
         <v>78</v>
       </c>
@@ -9471,13 +9698,13 @@
       <c r="BG11" s="1">
         <v>37.22</v>
       </c>
-      <c r="BH11" s="38">
+      <c r="BH11" s="33">
         <v>18.13</v>
       </c>
-      <c r="BI11" s="38">
+      <c r="BI11" s="33">
         <v>20.86</v>
       </c>
-      <c r="BJ11" s="38">
+      <c r="BJ11" s="33">
         <v>24.78</v>
       </c>
       <c r="BK11" s="1">
@@ -12220,18 +12447,18 @@
       <c r="B59" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C59" s="33" t="s">
+      <c r="C59" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -12249,11 +12476,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:AU74"/>
+  <dimension ref="A5:BJ96"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15958,775 +16185,1699 @@
         <v>103019.05066278054</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A59" s="18" t="s">
+    <row r="57" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" s="9">
+        <v>117627.05</v>
+      </c>
+      <c r="E58" s="9">
+        <v>87280.84</v>
+      </c>
+      <c r="F58" s="9">
+        <v>76292.41</v>
+      </c>
+      <c r="G58" s="9">
+        <v>81428.28</v>
+      </c>
+      <c r="H58" s="9">
+        <v>64455.79</v>
+      </c>
+      <c r="I58" s="9">
+        <v>58588.86</v>
+      </c>
+      <c r="J58" s="9">
+        <v>52721.24</v>
+      </c>
+      <c r="K58" s="9">
+        <v>44355.17</v>
+      </c>
+      <c r="L58" s="9">
+        <v>25068.18</v>
+      </c>
+      <c r="M58" s="9">
+        <v>29889.119999999999</v>
+      </c>
+      <c r="N58" s="9">
+        <v>20825.96</v>
+      </c>
+      <c r="O58" s="9">
+        <v>17576.13</v>
+      </c>
+      <c r="P58" s="9">
+        <v>10375.709999999999</v>
+      </c>
+      <c r="Q58" s="9">
+        <v>7955.66</v>
+      </c>
+      <c r="R58" s="9">
+        <v>6032.34</v>
+      </c>
+      <c r="S58" s="9">
+        <v>4862.75</v>
+      </c>
+      <c r="T58" s="9">
+        <v>3935.44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="9">
+        <v>99064.17</v>
+      </c>
+      <c r="E59" s="9">
+        <v>72769.820000000007</v>
+      </c>
+      <c r="F59" s="9">
+        <v>62410.95</v>
+      </c>
+      <c r="G59" s="9">
+        <v>67694.94</v>
+      </c>
+      <c r="H59" s="9">
+        <v>53467.18</v>
+      </c>
+      <c r="I59" s="9">
+        <v>48198.32</v>
+      </c>
+      <c r="J59" s="9">
+        <v>44120.65</v>
+      </c>
+      <c r="K59" s="9">
+        <v>38432.9</v>
+      </c>
+      <c r="L59" s="9">
+        <v>21196</v>
+      </c>
+      <c r="M59" s="9">
+        <v>25565.81</v>
+      </c>
+      <c r="N59" s="9">
+        <v>17287.810000000001</v>
+      </c>
+      <c r="O59" s="9">
+        <v>14563.76</v>
+      </c>
+      <c r="P59" s="9">
+        <v>8619.3700000000008</v>
+      </c>
+      <c r="Q59" s="9">
+        <v>6543.45</v>
+      </c>
+      <c r="R59" s="9">
+        <v>4957.8500000000004</v>
+      </c>
+      <c r="S59" s="9">
+        <v>4021.15</v>
+      </c>
+      <c r="T59" s="9">
+        <v>3228.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="9">
+        <v>7112.42</v>
+      </c>
+      <c r="E60" s="9">
+        <v>5286</v>
+      </c>
+      <c r="F60" s="9">
+        <v>3950.86</v>
+      </c>
+      <c r="G60" s="9">
+        <v>4573.1899999999996</v>
+      </c>
+      <c r="H60" s="9">
+        <v>3983.56</v>
+      </c>
+      <c r="I60" s="9">
+        <v>4100.66</v>
+      </c>
+      <c r="J60" s="9">
+        <v>4613.1099999999997</v>
+      </c>
+      <c r="K60" s="9">
+        <v>4469.76</v>
+      </c>
+      <c r="L60" s="9">
+        <v>2235.0700000000002</v>
+      </c>
+      <c r="M60" s="9">
+        <v>3422.81</v>
+      </c>
+      <c r="N60" s="9">
+        <v>2418.2800000000002</v>
+      </c>
+      <c r="O60" s="9">
+        <v>1644.27</v>
+      </c>
+      <c r="P60" s="9">
+        <v>882.34</v>
+      </c>
+      <c r="Q60" s="9">
+        <v>600.9</v>
+      </c>
+      <c r="R60" s="9">
+        <v>515.57000000000005</v>
+      </c>
+      <c r="S60" s="9">
+        <v>381.84</v>
+      </c>
+      <c r="T60" s="9">
+        <v>274.75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" s="9">
+        <v>5483.81</v>
+      </c>
+      <c r="E61" s="9">
+        <v>3761.42</v>
+      </c>
+      <c r="F61" s="9">
+        <v>2962.93</v>
+      </c>
+      <c r="G61" s="9">
+        <v>3747.35</v>
+      </c>
+      <c r="H61" s="9">
+        <v>2773.43</v>
+      </c>
+      <c r="I61" s="9">
+        <v>2471.58</v>
+      </c>
+      <c r="J61" s="9">
+        <v>2155.71</v>
+      </c>
+      <c r="K61" s="9">
+        <v>1638.41</v>
+      </c>
+      <c r="L61" s="9">
+        <v>969.36</v>
+      </c>
+      <c r="M61" s="9">
+        <v>1269.9100000000001</v>
+      </c>
+      <c r="N61" s="9">
+        <v>991.33</v>
+      </c>
+      <c r="O61" s="9">
+        <v>758.87</v>
+      </c>
+      <c r="P61" s="9">
+        <v>383.32</v>
+      </c>
+      <c r="Q61" s="9">
+        <v>264.52999999999997</v>
+      </c>
+      <c r="R61" s="9">
+        <v>233.66</v>
+      </c>
+      <c r="S61" s="9">
+        <v>230.56</v>
+      </c>
+      <c r="T61" s="9">
+        <v>207.63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D62" s="9">
+        <v>10580.8</v>
+      </c>
+      <c r="E62" s="9">
+        <v>8852.7800000000007</v>
+      </c>
+      <c r="F62" s="9">
+        <v>8910.6200000000008</v>
+      </c>
+      <c r="G62" s="9">
+        <v>8280.48</v>
+      </c>
+      <c r="H62" s="9">
+        <v>6999.57</v>
+      </c>
+      <c r="I62" s="9">
+        <v>6679.08</v>
+      </c>
+      <c r="J62" s="9">
+        <v>5418.82</v>
+      </c>
+      <c r="K62" s="9">
+        <v>3660.67</v>
+      </c>
+      <c r="L62" s="9">
+        <v>2475.85</v>
+      </c>
+      <c r="M62" s="9">
+        <v>2681.72</v>
+      </c>
+      <c r="N62" s="9">
+        <v>2275.87</v>
+      </c>
+      <c r="O62" s="9">
+        <v>2049.5700000000002</v>
+      </c>
+      <c r="P62" s="9">
+        <v>1229.54</v>
+      </c>
+      <c r="Q62" s="9">
+        <v>1041.2</v>
+      </c>
+      <c r="R62" s="9">
+        <v>773.97</v>
+      </c>
+      <c r="S62" s="9">
+        <v>555.24</v>
+      </c>
+      <c r="T62" s="9">
+        <v>456.23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D63" s="9">
+        <v>2498.2600000000002</v>
+      </c>
+      <c r="E63" s="9">
+        <v>1896.81</v>
+      </c>
+      <c r="F63" s="9">
+        <v>2007.91</v>
+      </c>
+      <c r="G63" s="9">
+        <v>1705.52</v>
+      </c>
+      <c r="H63" s="9">
+        <v>1215.5999999999999</v>
+      </c>
+      <c r="I63" s="9">
+        <v>1239.8800000000001</v>
+      </c>
+      <c r="J63" s="9">
+        <v>1026.07</v>
+      </c>
+      <c r="K63" s="9">
+        <v>623.20000000000005</v>
+      </c>
+      <c r="L63" s="9">
+        <v>426.97</v>
+      </c>
+      <c r="M63" s="9">
+        <v>371.68</v>
+      </c>
+      <c r="N63" s="9">
+        <v>270.95</v>
+      </c>
+      <c r="O63" s="9">
+        <v>203.94</v>
+      </c>
+      <c r="P63" s="9">
+        <v>143.47999999999999</v>
+      </c>
+      <c r="Q63" s="9">
+        <v>106.48</v>
+      </c>
+      <c r="R63" s="9">
+        <v>66.87</v>
+      </c>
+      <c r="S63" s="9">
+        <v>55.8</v>
+      </c>
+      <c r="T63" s="9">
+        <v>42.98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="9"/>
+    </row>
+    <row r="65" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A66" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D59">
+      <c r="D66">
         <v>7455409</v>
       </c>
-      <c r="E59">
+      <c r="E66">
         <v>7050109</v>
       </c>
-      <c r="F59">
+      <c r="F66">
         <v>7659418</v>
       </c>
-      <c r="G59">
+      <c r="G66">
         <v>7493133</v>
       </c>
-      <c r="H59">
+      <c r="H66">
         <v>7642379</v>
       </c>
-      <c r="I59">
+      <c r="I66">
         <v>7219163</v>
       </c>
-      <c r="J59">
+      <c r="J66">
         <v>6019767</v>
       </c>
-      <c r="K59">
+      <c r="K66">
         <v>5548897</v>
       </c>
-      <c r="L59">
+      <c r="L66">
         <v>4939189</v>
       </c>
-      <c r="M59">
+      <c r="M66">
         <v>4401203</v>
       </c>
-      <c r="N59">
+      <c r="N66">
         <v>4005305</v>
       </c>
-      <c r="O59">
+      <c r="O66">
         <v>3682523</v>
       </c>
-      <c r="P59">
+      <c r="P66">
         <v>4042219</v>
       </c>
-      <c r="Q59">
+      <c r="Q66">
         <v>3021134</v>
       </c>
-      <c r="R59">
+      <c r="R66">
         <v>2629616</v>
       </c>
-      <c r="S59">
+      <c r="S66">
         <v>2414392</v>
       </c>
-      <c r="T59">
+      <c r="T66">
         <v>2139702</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>51</v>
       </c>
-      <c r="D60">
+      <c r="D67">
         <v>218297</v>
       </c>
-      <c r="E60">
+      <c r="E67">
         <v>126972</v>
       </c>
-      <c r="F60">
+      <c r="F67">
         <v>145182</v>
       </c>
-      <c r="G60">
+      <c r="G67">
         <v>126444</v>
       </c>
-      <c r="H60">
+      <c r="H67">
         <v>161899</v>
       </c>
-      <c r="I60">
+      <c r="I67">
         <v>155923</v>
       </c>
-      <c r="J60">
+      <c r="J67">
         <v>163207</v>
       </c>
-      <c r="K60">
+      <c r="K67">
         <v>143621</v>
       </c>
-      <c r="L60">
+      <c r="L67">
         <v>144618</v>
       </c>
-      <c r="M60">
+      <c r="M67">
         <v>159423</v>
       </c>
-      <c r="N60">
+      <c r="N67">
         <v>139632</v>
       </c>
-      <c r="O60">
+      <c r="O67">
         <v>135276</v>
       </c>
-      <c r="P60">
+      <c r="P67">
         <v>144949</v>
       </c>
-      <c r="Q60">
+      <c r="Q67">
         <v>108525</v>
       </c>
-      <c r="R60">
+      <c r="R67">
         <v>97751</v>
       </c>
-      <c r="S60">
+      <c r="S67">
         <v>72207</v>
       </c>
-      <c r="T60">
+      <c r="T67">
         <v>59880</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>52</v>
       </c>
-      <c r="D61">
+      <c r="D68">
         <v>12822565</v>
       </c>
-      <c r="E61">
+      <c r="E68">
         <v>10578898</v>
       </c>
-      <c r="F61">
+      <c r="F68">
         <v>10104351</v>
       </c>
-      <c r="G61">
+      <c r="G68">
         <v>11046279</v>
       </c>
-      <c r="H61">
+      <c r="H68">
         <v>9446424</v>
       </c>
-      <c r="I61">
+      <c r="I68">
         <v>9139672</v>
       </c>
-      <c r="J61">
+      <c r="J68">
         <v>8817526</v>
       </c>
-      <c r="K61">
+      <c r="K68">
         <v>8040470</v>
       </c>
-      <c r="L61">
+      <c r="L68">
         <v>5565827</v>
       </c>
-      <c r="M61">
+      <c r="M68">
         <v>6251263</v>
       </c>
-      <c r="N61">
+      <c r="N68">
         <v>5049094</v>
       </c>
-      <c r="O61">
+      <c r="O68">
         <v>4235372</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>53</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D69" s="1">
         <v>258582</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E69" s="1">
         <v>191594</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F69" s="1">
         <v>167469</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G69" s="1">
         <v>202081</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H69" s="1">
         <v>184001</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I69" s="1">
         <v>191881</v>
       </c>
-      <c r="J62" s="1">
+      <c r="J69" s="1">
         <v>223596</v>
       </c>
-      <c r="K62" s="1">
+      <c r="K69" s="1">
         <v>240129</v>
       </c>
-      <c r="L62" s="1">
+      <c r="L69" s="1">
         <v>157455</v>
       </c>
-      <c r="M62" s="1">
+      <c r="M69" s="1">
         <v>257776</v>
       </c>
-      <c r="N62" s="1">
+      <c r="N69" s="1">
         <v>219982</v>
       </c>
-      <c r="O62" s="1">
+      <c r="O69" s="1">
         <v>152339</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A63" s="7" t="s">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A70" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D63" s="1">
-        <f t="shared" ref="D63:T63" si="34">SUM(D59:T59)</f>
+      <c r="D70" s="1">
+        <f t="shared" ref="D70:T70" si="34">SUM(D66:T66)</f>
         <v>87363558</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E70" s="1">
         <f t="shared" si="34"/>
         <v>79908149</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F70" s="1">
         <f t="shared" si="34"/>
         <v>72858040</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G70" s="1">
         <f t="shared" si="34"/>
         <v>65198622</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H70" s="1">
         <f t="shared" si="34"/>
         <v>57705489</v>
       </c>
-      <c r="I63" s="1">
+      <c r="I70" s="1">
         <f t="shared" si="34"/>
         <v>50063110</v>
       </c>
-      <c r="J63" s="1">
+      <c r="J70" s="1">
         <f t="shared" si="34"/>
         <v>42843947</v>
       </c>
-      <c r="K63" s="1">
+      <c r="K70" s="1">
         <f t="shared" si="34"/>
         <v>36824180</v>
       </c>
-      <c r="L63" s="1">
+      <c r="L70" s="1">
         <f t="shared" si="34"/>
         <v>31275283</v>
       </c>
-      <c r="M63" s="1">
+      <c r="M70" s="1">
         <f t="shared" si="34"/>
         <v>26336094</v>
       </c>
-      <c r="N63" s="1">
+      <c r="N70" s="1">
         <f t="shared" si="34"/>
         <v>21934891</v>
       </c>
-      <c r="O63" s="1">
+      <c r="O70" s="1">
         <f t="shared" si="34"/>
         <v>17929586</v>
       </c>
-      <c r="P63" s="1">
+      <c r="P70" s="1">
         <f t="shared" si="34"/>
         <v>14247063</v>
       </c>
-      <c r="Q63" s="1">
+      <c r="Q70" s="1">
         <f t="shared" si="34"/>
         <v>10204844</v>
       </c>
-      <c r="R63" s="1">
+      <c r="R70" s="1">
         <f t="shared" si="34"/>
         <v>7183710</v>
       </c>
-      <c r="S63" s="1">
+      <c r="S70" s="1">
         <f t="shared" si="34"/>
         <v>4554094</v>
       </c>
-      <c r="T63" s="1">
+      <c r="T70" s="1">
         <f t="shared" si="34"/>
         <v>2139702</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A64" s="7" t="s">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A71" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D64" s="1">
-        <f t="shared" ref="D64:O64" si="35">SUM(D61:T61)</f>
+      <c r="D71" s="1">
+        <f t="shared" ref="D71:O71" si="35">SUM(D68:T68)</f>
         <v>101097741</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E71" s="1">
         <f t="shared" si="35"/>
         <v>88275176</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F71" s="1">
         <f t="shared" si="35"/>
         <v>77696278</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G71" s="1">
         <f t="shared" si="35"/>
         <v>67591927</v>
       </c>
-      <c r="H64" s="1">
+      <c r="H71" s="1">
         <f t="shared" si="35"/>
         <v>56545648</v>
       </c>
-      <c r="I64" s="1">
+      <c r="I71" s="1">
         <f t="shared" si="35"/>
         <v>47099224</v>
       </c>
-      <c r="J64" s="1">
+      <c r="J71" s="1">
         <f t="shared" si="35"/>
         <v>37959552</v>
       </c>
-      <c r="K64" s="1">
+      <c r="K71" s="1">
         <f t="shared" si="35"/>
         <v>29142026</v>
       </c>
-      <c r="L64" s="1">
+      <c r="L71" s="1">
         <f t="shared" si="35"/>
         <v>21101556</v>
       </c>
-      <c r="M64" s="1">
+      <c r="M71" s="1">
         <f t="shared" si="35"/>
         <v>15535729</v>
       </c>
-      <c r="N64" s="1">
+      <c r="N71" s="1">
         <f t="shared" si="35"/>
         <v>9284466</v>
       </c>
-      <c r="O64" s="1">
+      <c r="O71" s="1">
         <f t="shared" si="35"/>
         <v>4235372</v>
       </c>
-      <c r="P64" s="1"/>
+      <c r="P71" s="1"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>28</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C72" t="s">
         <v>56</v>
       </c>
-      <c r="D65" s="1">
-        <f t="shared" ref="D65:T65" si="36">(D12*D39)/D59*10000</f>
+      <c r="D72" s="1">
+        <f>(D12*D39)/D66*10000</f>
         <v>98.844144121565563</v>
       </c>
-      <c r="E65" s="1">
-        <f t="shared" si="36"/>
+      <c r="E72" s="1">
+        <f>(E12*E39)/E66*10000</f>
         <v>97.980993261550907</v>
       </c>
-      <c r="F65" s="1">
-        <f t="shared" si="36"/>
+      <c r="F72" s="1">
+        <f>(F12*F39)/F66*10000</f>
         <v>97.553197930808949</v>
       </c>
-      <c r="G65" s="1">
-        <f t="shared" si="36"/>
+      <c r="G72" s="1">
+        <f>(G12*G39)/G66*10000</f>
         <v>98.122905581085732</v>
       </c>
-      <c r="H65" s="1">
-        <f t="shared" si="36"/>
+      <c r="H72" s="1">
+        <f>(H12*H39)/H66*10000</f>
         <v>95.881792089478182</v>
       </c>
-      <c r="I65" s="1">
-        <f t="shared" si="36"/>
+      <c r="I72" s="1">
+        <f>(I12*I39)/I66*10000</f>
         <v>98.729054479801306</v>
       </c>
-      <c r="J65" s="1">
-        <f t="shared" si="36"/>
+      <c r="J72" s="1">
+        <f>(J12*J39)/J66*10000</f>
         <v>103.40159214245566</v>
       </c>
-      <c r="K65" s="1">
-        <f t="shared" si="36"/>
+      <c r="K72" s="1">
+        <f>(K12*K39)/K66*10000</f>
         <v>104.9619085812206</v>
       </c>
-      <c r="L65" s="1">
-        <f t="shared" si="36"/>
+      <c r="L72" s="1">
+        <f>(L12*L39)/L66*10000</f>
         <v>109.88377599221866</v>
       </c>
-      <c r="M65" s="1">
-        <f t="shared" si="36"/>
+      <c r="M72" s="1">
+        <f>(M12*M39)/M66*10000</f>
         <v>113.73528625445866</v>
       </c>
-      <c r="N65" s="1">
-        <f t="shared" si="36"/>
+      <c r="N72" s="1">
+        <f>(N12*N39)/N66*10000</f>
         <v>113.27547841543478</v>
       </c>
-      <c r="O65" s="1">
-        <f t="shared" si="36"/>
+      <c r="O72" s="1">
+        <f>(O12*O39)/O66*10000</f>
         <v>117.60767727372189</v>
       </c>
-      <c r="P65" s="1">
-        <f t="shared" si="36"/>
+      <c r="P72" s="1">
+        <f>(P12*P39)/P66*10000</f>
         <v>83.378296864682298</v>
       </c>
-      <c r="Q65" s="1">
-        <f t="shared" si="36"/>
+      <c r="Q72" s="1">
+        <f>(Q12*Q39)/Q66*10000</f>
         <v>110.01774839005122</v>
       </c>
-      <c r="R65" s="1">
-        <f t="shared" si="36"/>
+      <c r="R72" s="1">
+        <f>(R12*R39)/R66*10000</f>
         <v>107.89398726601578</v>
       </c>
-      <c r="S65" s="1">
-        <f t="shared" si="36"/>
+      <c r="S72" s="1">
+        <f>(S12*S39)/S66*10000</f>
         <v>101.00678177617061</v>
       </c>
-      <c r="T65" s="1">
-        <f t="shared" si="36"/>
+      <c r="T72" s="1">
+        <f>(T12*T39)/T66*10000</f>
         <v>96.778275111607982</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="73" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>32</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C73" t="s">
         <v>56</v>
       </c>
-      <c r="D66">
-        <f t="shared" ref="D66:T66" si="37">D12*D40/D60*10000</f>
+      <c r="D73">
+        <f>D12*D40/D67*10000</f>
         <v>106.65628207009505</v>
       </c>
-      <c r="E66">
-        <f t="shared" si="37"/>
+      <c r="E73">
+        <f>E12*E40/E67*10000</f>
         <v>169.275302570728</v>
       </c>
-      <c r="F66">
-        <f t="shared" si="37"/>
+      <c r="F73">
+        <f>F12*F40/F67*10000</f>
         <v>176.18916001453186</v>
       </c>
-      <c r="G66">
-        <f t="shared" si="37"/>
+      <c r="G73">
+        <f>G12*G40/G67*10000</f>
         <v>177.60386129219449</v>
       </c>
-      <c r="H66">
-        <f t="shared" si="37"/>
+      <c r="H73">
+        <f>H12*H40/H67*10000</f>
         <v>146.42896723325077</v>
       </c>
-      <c r="I66">
-        <f t="shared" si="37"/>
+      <c r="I73">
+        <f>I12*I40/I67*10000</f>
         <v>175.59107593231525</v>
       </c>
-      <c r="J66">
-        <f t="shared" si="37"/>
+      <c r="J73">
+        <f>J12*J40/J67*10000</f>
         <v>149.77468758593082</v>
       </c>
-      <c r="K66">
-        <f t="shared" si="37"/>
+      <c r="K73">
+        <f>K12*K40/K67*10000</f>
         <v>158.64093489196807</v>
       </c>
-      <c r="L66">
-        <f t="shared" si="37"/>
+      <c r="L73">
+        <f>L12*L40/L67*10000</f>
         <v>194.59346652684843</v>
       </c>
-      <c r="M66">
-        <f t="shared" si="37"/>
+      <c r="M73">
+        <f>M12*M40/M67*10000</f>
         <v>195.83285848723565</v>
       </c>
-      <c r="N66">
-        <f t="shared" si="37"/>
+      <c r="N73">
+        <f>N12*N40/N67*10000</f>
         <v>204.74878575000218</v>
       </c>
-      <c r="O66">
-        <f t="shared" si="37"/>
+      <c r="O73">
+        <f>O12*O40/O67*10000</f>
         <v>164.47021400400254</v>
       </c>
-      <c r="P66">
-        <f t="shared" si="37"/>
+      <c r="P73">
+        <f>P12*P40/P67*10000</f>
         <v>144.29978235666974</v>
       </c>
-      <c r="Q66">
-        <f t="shared" si="37"/>
+      <c r="Q73">
+        <f>Q12*Q40/Q67*10000</f>
         <v>164.0708970745566</v>
       </c>
-      <c r="R66">
-        <f t="shared" si="37"/>
+      <c r="R73">
+        <f>R12*R40/R67*10000</f>
         <v>190.45084775750891</v>
       </c>
-      <c r="S66">
-        <f t="shared" si="37"/>
+      <c r="S73">
+        <f>S12*S40/S67*10000</f>
         <v>161.13157777524788</v>
       </c>
-      <c r="T66">
-        <f t="shared" si="37"/>
+      <c r="T73">
+        <f>T12*T40/T67*10000</f>
         <v>165.68646393958966</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="19" t="s">
+    <row r="74" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C76" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D69">
-        <f>(D56+D74)/population!E20</f>
+      <c r="D76">
+        <f>(D56+D81)/population!E20</f>
         <v>17.051980764493184</v>
       </c>
-      <c r="E69">
+      <c r="E76">
         <f>E56/population!F20</f>
         <v>14.945874275932111</v>
       </c>
-      <c r="F69">
+      <c r="F76">
         <f>F56/population!G20</f>
         <v>13.8842670546049</v>
       </c>
-      <c r="G69">
+      <c r="G76">
         <f>G56/population!H20</f>
         <v>12.788307650870328</v>
       </c>
-      <c r="H69">
+      <c r="H76">
         <f>H56/population!I20</f>
         <v>11.509135324418823</v>
       </c>
-      <c r="I69">
+      <c r="I76">
         <f>I56/population!J20</f>
         <v>10.434079252200823</v>
       </c>
-      <c r="J69">
+      <c r="J76">
         <f>J56/population!K20</f>
         <v>9.3201849960103402</v>
       </c>
-      <c r="K69">
+      <c r="K76">
         <f>K56/population!L20</f>
         <v>8.229023292763836</v>
       </c>
-      <c r="L69">
+      <c r="L76">
         <f>L56/population!M20</f>
         <v>7.1260333744015609</v>
       </c>
-      <c r="M69">
+      <c r="M76">
         <f>M56/population!N20</f>
         <v>6.3563655214615906</v>
       </c>
-      <c r="N69">
+      <c r="N76">
         <f>N56/population!O20</f>
         <v>5.4088256701684845</v>
       </c>
-      <c r="O69">
+      <c r="O76">
         <f>O56/population!P20</f>
         <v>4.6226193813203693</v>
       </c>
-      <c r="P69">
+      <c r="P76">
         <f>P56/population!Q20</f>
         <v>3.8733830234655522</v>
       </c>
-      <c r="Q69">
+      <c r="Q76">
         <f>Q56/population!R20</f>
         <v>3.3686986532530274</v>
       </c>
-      <c r="R69">
+      <c r="R76">
         <f>R56/population!S20</f>
         <v>2.9208179451680985</v>
       </c>
-      <c r="S69">
+      <c r="S76">
         <f>S56/population!T20</f>
         <v>2.5582099006071184</v>
       </c>
-      <c r="T69">
+      <c r="T76">
         <f>T56/population!U20</f>
         <v>2.2441304113357852</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="32" x14ac:dyDescent="0.2">
-      <c r="C70" s="8" t="s">
+    <row r="77" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="C77" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D70">
-        <f t="shared" ref="D70:S70" si="38">D56/D22</f>
+      <c r="D77">
+        <f t="shared" ref="D77:S77" si="36">D56/D22</f>
         <v>2.2614831629891818</v>
       </c>
-      <c r="E70">
-        <f t="shared" si="38"/>
+      <c r="E77">
+        <f t="shared" si="36"/>
         <v>2.101521083444589</v>
       </c>
-      <c r="F70">
-        <f t="shared" si="38"/>
+      <c r="F77">
+        <f t="shared" si="36"/>
         <v>1.9788595639599302</v>
       </c>
-      <c r="G70">
-        <f t="shared" si="38"/>
+      <c r="G77">
+        <f t="shared" si="36"/>
         <v>1.8993725761300928</v>
       </c>
-      <c r="H70">
-        <f t="shared" si="38"/>
+      <c r="H77">
+        <f t="shared" si="36"/>
         <v>1.8067470114886028</v>
       </c>
-      <c r="I70">
-        <f t="shared" si="38"/>
+      <c r="I77">
+        <f t="shared" si="36"/>
         <v>1.7252985351865995</v>
       </c>
-      <c r="J70">
-        <f t="shared" si="38"/>
+      <c r="J77">
+        <f t="shared" si="36"/>
         <v>1.6716077843959312</v>
       </c>
-      <c r="K70">
-        <f t="shared" si="38"/>
+      <c r="K77">
+        <f t="shared" si="36"/>
         <v>1.5918727634148249</v>
       </c>
-      <c r="L70">
-        <f t="shared" si="38"/>
+      <c r="L77">
+        <f t="shared" si="36"/>
         <v>1.474526604256144</v>
       </c>
-      <c r="M70">
-        <f t="shared" si="38"/>
+      <c r="M77">
+        <f t="shared" si="36"/>
         <v>1.4697495270775955</v>
       </c>
-      <c r="N70">
-        <f t="shared" si="38"/>
+      <c r="N77">
+        <f t="shared" si="36"/>
         <v>1.4202649419249422</v>
       </c>
-      <c r="O70">
-        <f t="shared" si="38"/>
+      <c r="O77">
+        <f t="shared" si="36"/>
         <v>1.4015018329665736</v>
       </c>
-      <c r="P70">
-        <f t="shared" si="38"/>
+      <c r="P77">
+        <f t="shared" si="36"/>
         <v>1.4288534055586721</v>
       </c>
-      <c r="Q70">
-        <f t="shared" si="38"/>
+      <c r="Q77">
+        <f t="shared" si="36"/>
         <v>1.6433182955360186</v>
       </c>
-      <c r="R70">
-        <f t="shared" si="38"/>
+      <c r="R77">
+        <f t="shared" si="36"/>
         <v>2.0462961337196246</v>
       </c>
-      <c r="S70">
-        <f t="shared" si="38"/>
+      <c r="S77">
+        <f t="shared" si="36"/>
         <v>3.0499850961504298</v>
       </c>
-      <c r="T70" t="e">
+      <c r="T77" t="e">
         <f>#REF!/T22</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="32" x14ac:dyDescent="0.2">
-      <c r="C71" s="20" t="s">
+    <row r="78" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="C78" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D71">
-        <f t="shared" ref="D71:S71" si="39">D12/D24</f>
+      <c r="D78">
+        <f t="shared" ref="D78:S78" si="37">D12/D24</f>
         <v>4.5078780191923506</v>
       </c>
-      <c r="E71">
-        <f t="shared" si="39"/>
+      <c r="E78">
+        <f t="shared" si="37"/>
         <v>3.5338778794705115</v>
       </c>
-      <c r="F71">
-        <f t="shared" si="39"/>
+      <c r="F78">
+        <f t="shared" si="37"/>
         <v>3.2051285492802593</v>
       </c>
-      <c r="G71">
-        <f t="shared" si="39"/>
+      <c r="G78">
+        <f t="shared" si="37"/>
         <v>2.7616462337223879</v>
       </c>
-      <c r="H71">
-        <f t="shared" si="39"/>
+      <c r="H78">
+        <f t="shared" si="37"/>
         <v>2.785670677978016</v>
       </c>
-      <c r="I71">
-        <f t="shared" si="39"/>
+      <c r="I78">
+        <f t="shared" si="37"/>
         <v>2.6042711536715029</v>
       </c>
-      <c r="J71">
-        <f t="shared" si="39"/>
+      <c r="J78">
+        <f t="shared" si="37"/>
         <v>1.9060924401785573</v>
       </c>
-      <c r="K71">
-        <f t="shared" si="39"/>
+      <c r="K78">
+        <f t="shared" si="37"/>
         <v>1.5380164803049379</v>
       </c>
-      <c r="L71">
-        <f t="shared" si="39"/>
+      <c r="L78">
+        <f t="shared" si="37"/>
         <v>2.0364832892800355</v>
       </c>
-      <c r="M71">
-        <f t="shared" si="39"/>
+      <c r="M78">
+        <f t="shared" si="37"/>
         <v>1.6702713175196835</v>
       </c>
-      <c r="N71">
-        <f t="shared" si="39"/>
+      <c r="N78">
+        <f t="shared" si="37"/>
         <v>2.1011247964016162</v>
       </c>
-      <c r="O71">
-        <f t="shared" si="39"/>
+      <c r="O78">
+        <f t="shared" si="37"/>
         <v>1.0605556849391362</v>
       </c>
-      <c r="P71">
-        <f t="shared" si="39"/>
+      <c r="P78">
+        <f t="shared" si="37"/>
         <v>1.9362112973134158</v>
       </c>
-      <c r="Q71">
-        <f t="shared" si="39"/>
+      <c r="Q78">
+        <f t="shared" si="37"/>
         <v>1.252972647922266</v>
       </c>
-      <c r="R71">
-        <f t="shared" si="39"/>
+      <c r="R78">
+        <f t="shared" si="37"/>
         <v>1.3070033699224146</v>
       </c>
-      <c r="S71">
-        <f t="shared" si="39"/>
+      <c r="S78">
+        <f t="shared" si="37"/>
         <v>1.2665519728704078</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="32" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
+    <row r="79" spans="1:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
         <v>45</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C79" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D72" s="14">
-        <f t="shared" ref="D72:S72" si="40">(D16-D56)/D16</f>
+      <c r="D79" s="14">
+        <f t="shared" ref="D79:S79" si="38">(D16-D56)/D16</f>
         <v>6.2216977229373319E-2</v>
       </c>
-      <c r="E72" s="14">
-        <f t="shared" si="40"/>
+      <c r="E79" s="14">
+        <f t="shared" si="38"/>
         <v>9.2160316215887286E-2</v>
       </c>
-      <c r="F72" s="14">
-        <f t="shared" si="40"/>
+      <c r="F79" s="14">
+        <f t="shared" si="38"/>
         <v>0.11062312452564875</v>
       </c>
-      <c r="G72" s="14">
-        <f t="shared" si="40"/>
+      <c r="G79" s="14">
+        <f t="shared" si="38"/>
         <v>0.11967731020687486</v>
       </c>
-      <c r="H72" s="14">
-        <f t="shared" si="40"/>
+      <c r="H79" s="14">
+        <f t="shared" si="38"/>
         <v>0.14718735844757905</v>
       </c>
-      <c r="I72" s="14">
-        <f t="shared" si="40"/>
+      <c r="I79" s="14">
+        <f t="shared" si="38"/>
         <v>0.16306805748707714</v>
       </c>
-      <c r="J72" s="14">
-        <f t="shared" si="40"/>
+      <c r="J79" s="14">
+        <f t="shared" si="38"/>
         <v>0.18780396981357714</v>
       </c>
-      <c r="K72" s="14">
-        <f t="shared" si="40"/>
+      <c r="K79" s="14">
+        <f t="shared" si="38"/>
         <v>0.23045266029885178</v>
       </c>
-      <c r="L72" s="14">
-        <f t="shared" si="40"/>
+      <c r="L79" s="14">
+        <f t="shared" si="38"/>
         <v>0.27947668463315922</v>
       </c>
-      <c r="M72" s="14">
-        <f t="shared" si="40"/>
+      <c r="M79" s="14">
+        <f t="shared" si="38"/>
         <v>0.30005920827555316</v>
       </c>
-      <c r="N72" s="14">
-        <f t="shared" si="40"/>
+      <c r="N79" s="14">
+        <f t="shared" si="38"/>
         <v>0.35661779356829598</v>
       </c>
-      <c r="O72" s="14">
-        <f t="shared" si="40"/>
+      <c r="O79" s="14">
+        <f t="shared" si="38"/>
         <v>0.40153455120750986</v>
       </c>
-      <c r="P72" s="14">
-        <f t="shared" si="40"/>
+      <c r="P79" s="14">
+        <f t="shared" si="38"/>
         <v>0.44780794472777447</v>
       </c>
-      <c r="Q72" s="14">
-        <f t="shared" si="40"/>
+      <c r="Q79" s="14">
+        <f t="shared" si="38"/>
         <v>0.47846396317971263</v>
       </c>
-      <c r="R72" s="14">
-        <f t="shared" si="40"/>
+      <c r="R79" s="14">
+        <f t="shared" si="38"/>
         <v>0.50593258321382795</v>
       </c>
-      <c r="S72" s="14">
-        <f t="shared" si="40"/>
+      <c r="S79" s="14">
+        <f t="shared" si="38"/>
         <v>0.53045626305279592</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="32" x14ac:dyDescent="0.2">
-      <c r="C74" s="8" t="s">
+    <row r="81" spans="1:62" ht="32" x14ac:dyDescent="0.2">
+      <c r="C81" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D74">
+      <c r="D81">
         <f>3.6*population!AQ20</f>
         <v>62082</v>
+      </c>
+    </row>
+    <row r="84" spans="1:62" ht="32" x14ac:dyDescent="0.2">
+      <c r="C84" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D84" s="3">
+        <f>D59*10^8/D47/10^4</f>
+        <v>7202.5752812292412</v>
+      </c>
+      <c r="E84" s="3">
+        <f t="shared" ref="E84:S84" si="39">E59*10^8/E47/10^4</f>
+        <v>6473.4754536181063</v>
+      </c>
+      <c r="F84" s="3">
+        <f t="shared" si="39"/>
+        <v>5933.2884548672428</v>
+      </c>
+      <c r="G84" s="3">
+        <f t="shared" si="39"/>
+        <v>5849.7551344511603</v>
+      </c>
+      <c r="H84" s="3">
+        <f t="shared" si="39"/>
+        <v>5429.9311519099037</v>
+      </c>
+      <c r="I84" s="3">
+        <f t="shared" si="39"/>
+        <v>4993.1745483013756</v>
+      </c>
+      <c r="J84" s="3">
+        <f t="shared" si="39"/>
+        <v>4725.0221147482343</v>
+      </c>
+      <c r="K84" s="3">
+        <f t="shared" si="39"/>
+        <v>4459.3547662473084</v>
+      </c>
+      <c r="L84" s="3">
+        <f t="shared" si="39"/>
+        <v>3575.5524385399208</v>
+      </c>
+      <c r="M84" s="3">
+        <f t="shared" si="39"/>
+        <v>3645.1827509685481</v>
+      </c>
+      <c r="N84" s="3">
+        <f t="shared" si="39"/>
+        <v>3119.2511405473733</v>
+      </c>
+      <c r="O84" s="3">
+        <f t="shared" si="39"/>
+        <v>2936.9625571435572</v>
+      </c>
+      <c r="P84" s="3">
+        <f t="shared" si="39"/>
+        <v>2548.6097086655227</v>
+      </c>
+      <c r="Q84" s="3">
+        <f t="shared" si="39"/>
+        <v>2197.3481178756065</v>
+      </c>
+      <c r="R84" s="3">
+        <f t="shared" si="39"/>
+        <v>2091.7159551115483</v>
+      </c>
+      <c r="S84" s="3">
+        <f t="shared" si="39"/>
+        <v>2016.7513008588803</v>
+      </c>
+    </row>
+    <row r="85" spans="1:62" ht="32" x14ac:dyDescent="0.2">
+      <c r="C85" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D85" s="3">
+        <f>D84*D56*10^4/10^8</f>
+        <v>929208.53744620003</v>
+      </c>
+      <c r="E85" s="3">
+        <f t="shared" ref="E85:H85" si="40">E84*E56*10^4/10^8</f>
+        <v>746110.79729043192</v>
+      </c>
+      <c r="F85" s="3">
+        <f t="shared" si="40"/>
+        <v>617153.22400943364</v>
+      </c>
+      <c r="G85" s="3">
+        <f t="shared" si="40"/>
+        <v>546932.19289241615</v>
+      </c>
+      <c r="H85" s="3">
+        <f t="shared" si="40"/>
+        <v>444843.45563643891</v>
+      </c>
+      <c r="I85" s="3">
+        <f t="shared" ref="I85" si="41">I84*I56*10^4/10^8</f>
+        <v>359895.91831739596</v>
+      </c>
+      <c r="J85" s="3">
+        <f t="shared" ref="J85" si="42">J84*J56*10^4/10^8</f>
+        <v>294958.25369546341</v>
+      </c>
+      <c r="K85" s="3">
+        <f t="shared" ref="K85:L85" si="43">K84*K56*10^4/10^8</f>
+        <v>236734.10122293574</v>
+      </c>
+      <c r="L85" s="3">
+        <f t="shared" si="43"/>
+        <v>158999.76134770285</v>
+      </c>
+      <c r="M85" s="3">
+        <f t="shared" ref="M85" si="44">M84*M56*10^4/10^8</f>
+        <v>140487.35195961926</v>
+      </c>
+      <c r="N85" s="3">
+        <f t="shared" ref="N85" si="45">N84*N56*10^4/10^8</f>
+        <v>98340.515502482755</v>
+      </c>
+      <c r="O85" s="3">
+        <f t="shared" ref="O85:P85" si="46">O84*O56*10^4/10^8</f>
+        <v>76315.997170462535</v>
+      </c>
+      <c r="P85" s="3">
+        <f t="shared" si="46"/>
+        <v>53586.774813201679</v>
+      </c>
+      <c r="Q85" s="3">
+        <f t="shared" ref="Q85" si="47">Q84*Q56*10^4/10^8</f>
+        <v>38769.781813228903</v>
+      </c>
+      <c r="R85" s="3">
+        <f t="shared" ref="R85" si="48">R84*R56*10^4/10^8</f>
+        <v>30677.129345176338</v>
+      </c>
+      <c r="S85" s="3">
+        <f t="shared" ref="S85" si="49">S84*S56*10^4/10^8</f>
+        <v>24797.530443740958</v>
+      </c>
+    </row>
+    <row r="86" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="C86" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D86">
+        <v>74412720000000</v>
+      </c>
+      <c r="E86">
+        <v>68905209275050</v>
+      </c>
+      <c r="F86">
+        <v>64397404820340</v>
+      </c>
+      <c r="G86">
+        <v>59524441442680</v>
+      </c>
+    </row>
+    <row r="87" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="C87" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D87">
+        <f>D85*10^8/D86</f>
+        <v>1.2487227149420153</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ref="E87:G87" si="50">E85*10^8/E86</f>
+        <v>1.0828075339154255</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="50"/>
+        <v>0.95835107910203399</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="50"/>
+        <v>0.91883632947499916</v>
+      </c>
+    </row>
+    <row r="95" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>98</v>
+      </c>
+      <c r="C95" t="s">
+        <v>99</v>
+      </c>
+      <c r="D95" t="s">
+        <v>100</v>
+      </c>
+      <c r="E95" t="s">
+        <v>101</v>
+      </c>
+      <c r="F95" t="s">
+        <v>102</v>
+      </c>
+      <c r="G95" t="s">
+        <v>103</v>
+      </c>
+      <c r="H95" t="s">
+        <v>104</v>
+      </c>
+      <c r="I95" t="s">
+        <v>105</v>
+      </c>
+      <c r="J95" t="s">
+        <v>106</v>
+      </c>
+      <c r="K95" t="s">
+        <v>107</v>
+      </c>
+      <c r="L95" t="s">
+        <v>108</v>
+      </c>
+      <c r="M95" t="s">
+        <v>109</v>
+      </c>
+      <c r="N95" t="s">
+        <v>110</v>
+      </c>
+      <c r="O95" t="s">
+        <v>111</v>
+      </c>
+      <c r="P95" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>113</v>
+      </c>
+      <c r="R95" t="s">
+        <v>114</v>
+      </c>
+      <c r="S95" t="s">
+        <v>115</v>
+      </c>
+      <c r="T95" t="s">
+        <v>116</v>
+      </c>
+      <c r="U95" t="s">
+        <v>117</v>
+      </c>
+      <c r="V95" t="s">
+        <v>118</v>
+      </c>
+      <c r="W95" t="s">
+        <v>119</v>
+      </c>
+      <c r="X95" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA95" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC95" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD95" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE95" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF95" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG95" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH95" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI95" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ95" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK95" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL95" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM95" t="s">
+        <v>135</v>
+      </c>
+      <c r="AN95" t="s">
+        <v>136</v>
+      </c>
+      <c r="AO95" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP95" t="s">
+        <v>138</v>
+      </c>
+      <c r="AQ95" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR95" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS95" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT95" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU95" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV95" t="s">
+        <v>144</v>
+      </c>
+      <c r="AW95" t="s">
+        <v>145</v>
+      </c>
+      <c r="AX95" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY95" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ95" t="s">
+        <v>148</v>
+      </c>
+      <c r="BA95" t="s">
+        <v>149</v>
+      </c>
+      <c r="BB95" t="s">
+        <v>150</v>
+      </c>
+      <c r="BC95" t="s">
+        <v>151</v>
+      </c>
+      <c r="BD95" t="s">
+        <v>152</v>
+      </c>
+      <c r="BE95" t="s">
+        <v>153</v>
+      </c>
+      <c r="BF95" t="s">
+        <v>154</v>
+      </c>
+      <c r="BG95" t="s">
+        <v>155</v>
+      </c>
+      <c r="BH95" t="s">
+        <v>156</v>
+      </c>
+      <c r="BI95" t="s">
+        <v>157</v>
+      </c>
+      <c r="BJ95" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>93</v>
+      </c>
+      <c r="B96" t="s">
+        <v>94</v>
+      </c>
+      <c r="C96" t="s">
+        <v>95</v>
+      </c>
+      <c r="D96" t="s">
+        <v>96</v>
+      </c>
+      <c r="E96">
+        <v>147010000000</v>
+      </c>
+      <c r="F96">
+        <v>123230000000</v>
+      </c>
+      <c r="G96">
+        <v>116219999999.99998</v>
+      </c>
+      <c r="H96">
+        <v>124829999999.99998</v>
+      </c>
+      <c r="I96">
+        <v>146990000000</v>
+      </c>
+      <c r="J96">
+        <v>173400000000</v>
+      </c>
+      <c r="K96">
+        <v>188870000000</v>
+      </c>
+      <c r="L96">
+        <v>179420000000</v>
+      </c>
+      <c r="M96">
+        <v>174410000000</v>
+      </c>
+      <c r="N96">
+        <v>196220000000</v>
+      </c>
+      <c r="O96">
+        <v>227970000000</v>
+      </c>
+      <c r="P96">
+        <v>245690000000</v>
+      </c>
+      <c r="Q96">
+        <v>255240000000</v>
+      </c>
+      <c r="R96">
+        <v>275620000000</v>
+      </c>
+      <c r="S96">
+        <v>282770000000</v>
+      </c>
+      <c r="T96">
+        <v>303950000000</v>
+      </c>
+      <c r="U96">
+        <v>298860000000</v>
+      </c>
+      <c r="V96">
+        <v>325000000000</v>
+      </c>
+      <c r="W96">
+        <v>367870251960</v>
+      </c>
+      <c r="X96">
+        <v>410045367150</v>
+      </c>
+      <c r="Y96">
+        <v>458758107780</v>
+      </c>
+      <c r="Z96">
+        <v>493583283730</v>
+      </c>
+      <c r="AA96">
+        <v>537335013629.99994</v>
+      </c>
+      <c r="AB96">
+        <v>602092410070</v>
+      </c>
+      <c r="AC96">
+        <v>727850230680</v>
+      </c>
+      <c r="AD96">
+        <v>909894802710</v>
+      </c>
+      <c r="AE96">
+        <v>1037615445370</v>
+      </c>
+      <c r="AF96">
+        <v>1217459467450</v>
+      </c>
+      <c r="AG96">
+        <v>1518038647670.0002</v>
+      </c>
+      <c r="AH96">
+        <v>1717974173480</v>
+      </c>
+      <c r="AI96">
+        <v>1887286882720</v>
+      </c>
+      <c r="AJ96">
+        <v>2200562845800</v>
+      </c>
+      <c r="AK96">
+        <v>2719453089970</v>
+      </c>
+      <c r="AL96">
+        <v>3567323035810</v>
+      </c>
+      <c r="AM96">
+        <v>4863745033380</v>
+      </c>
+      <c r="AN96">
+        <v>6133989133670</v>
+      </c>
+      <c r="AO96">
+        <v>7181362958670</v>
+      </c>
+      <c r="AP96">
+        <v>7971504449180</v>
+      </c>
+      <c r="AQ96">
+        <v>8519550708960.001</v>
+      </c>
+      <c r="AR96">
+        <v>9056437577650</v>
+      </c>
+      <c r="AS96">
+        <v>10028013925340.002</v>
+      </c>
+      <c r="AT96">
+        <v>11086312304619.998</v>
+      </c>
+      <c r="AU96">
+        <v>12171742474830</v>
+      </c>
+      <c r="AV96">
+        <v>13742203491790.002</v>
+      </c>
+      <c r="AW96">
+        <v>16184016090679.998</v>
+      </c>
+      <c r="AX96">
+        <v>18731890311770</v>
+      </c>
+      <c r="AY96">
+        <v>21943847481670</v>
+      </c>
+      <c r="AZ96">
+        <v>27023226935900</v>
+      </c>
+      <c r="BA96">
+        <v>31951554667200</v>
+      </c>
+      <c r="BB96">
+        <v>34908137086280.004</v>
+      </c>
+      <c r="BC96">
+        <v>41303030895780</v>
+      </c>
+      <c r="BD96">
+        <v>48930056616970</v>
+      </c>
+      <c r="BE96">
+        <v>54036742814450.008</v>
+      </c>
+      <c r="BF96">
+        <v>59524441442680</v>
+      </c>
+      <c r="BG96">
+        <v>64397404820340</v>
+      </c>
+      <c r="BH96">
+        <v>68905209275050</v>
+      </c>
+      <c r="BI96">
+        <v>74412720000000</v>
       </c>
     </row>
   </sheetData>

--- a/population and Residential Floor.xlsx
+++ b/population and Residential Floor.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2840" yWindow="-21140" windowWidth="34520" windowHeight="21140" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="population" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="108">
   <si>
     <t>人口出生率 /1000人</t>
   </si>
@@ -213,9 +213,6 @@
     <t>农村住宅建筑面积(万平方米)</t>
   </si>
   <si>
-    <t>住宅竣工套数</t>
-  </si>
-  <si>
     <t>——别墅、高档公寓竣工套数</t>
   </si>
   <si>
@@ -342,19 +339,10 @@
     <t>GDP(China)</t>
   </si>
   <si>
-    <t>China</t>
-  </si>
-  <si>
     <t>CHN</t>
   </si>
   <si>
     <t>GDP (current LCU)</t>
-  </si>
-  <si>
-    <t>NY.GDP.MKTP.CN</t>
-  </si>
-  <si>
-    <t>Country Name</t>
   </si>
   <si>
     <t>Country Code</t>
@@ -363,184 +351,41 @@
     <t>Indicator Name</t>
   </si>
   <si>
-    <t>Indicator Code</t>
+    <t>比例：</t>
   </si>
   <si>
-    <t>1960</t>
+    <t>总房屋价值(住宅)/GDP</t>
   </si>
   <si>
-    <t>1961</t>
+    <t>年份</t>
   </si>
   <si>
-    <t>1962</t>
+    <t>房屋总价值(住宅)/GDP</t>
   </si>
   <si>
-    <t>1963</t>
+    <t>y=0.0001x^3-0.0013x^2+0.0517x+0.1548</t>
   </si>
   <si>
-    <t>1964</t>
+    <t>y=0.2154*EXP(0.1118*x)</t>
   </si>
   <si>
-    <t>1965</t>
+    <t>R2=0.99054</t>
   </si>
   <si>
-    <t>1966</t>
+    <t>R2=0.98294</t>
   </si>
   <si>
-    <t>1967</t>
+    <t>计入商品房市场之前已存在的住房面积</t>
   </si>
   <si>
-    <t>1968</t>
+    <t>住宅竣工套数(套)</t>
   </si>
   <si>
-    <t>1969</t>
+    <t>去年发布的《深圳住房保障发展规划(2016-2020)》展示了一份基于2013年的深圳住房调查：全市1035万套的住房总量中，商品房约128万套，政策性保障性住房约34万套，单位及个人自建住房约55万套，原村民集体经济组织自建、合建房约650万套，工业区配套宿舍及其他168万套。
+这组数据显示，深圳住房结构中，商品房占比为12.4%，保障性住房更少，仅为3.3%。</t>
   </si>
   <si>
-    <t>1970</t>
-  </si>
-  <si>
-    <t>1971</t>
-  </si>
-  <si>
-    <t>1972</t>
-  </si>
-  <si>
-    <t>1973</t>
-  </si>
-  <si>
-    <t>1974</t>
-  </si>
-  <si>
-    <t>1975</t>
-  </si>
-  <si>
-    <t>1976</t>
-  </si>
-  <si>
-    <t>1977</t>
-  </si>
-  <si>
-    <t>1978</t>
-  </si>
-  <si>
-    <t>1979</t>
-  </si>
-  <si>
-    <t>1980</t>
-  </si>
-  <si>
-    <t>1981</t>
-  </si>
-  <si>
-    <t>1982</t>
-  </si>
-  <si>
-    <t>1983</t>
-  </si>
-  <si>
-    <t>1984</t>
-  </si>
-  <si>
-    <t>1985</t>
-  </si>
-  <si>
-    <t>1986</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>比例：</t>
+    <t>http://m.ifeng.com/house/shareNews?fromType=vampire&amp;aid=sub_14838602&amp;channelId=</t>
   </si>
 </sst>
 </file>
@@ -551,7 +396,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -627,6 +472,14 @@
       <sz val="12"/>
       <color theme="5" tint="-0.249977111117893"/>
       <name val="-webkit-standard"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -740,11 +593,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -793,6 +647,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -808,9 +663,24 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1344,11 +1214,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2131201760"/>
-        <c:axId val="-2131194848"/>
+        <c:axId val="-2128010880"/>
+        <c:axId val="-2128027840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2131201760"/>
+        <c:axId val="-2128010880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1391,7 +1261,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2131194848"/>
+        <c:crossAx val="-2128027840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1399,7 +1269,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2131194848"/>
+        <c:axId val="-2128027840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1450,7 +1320,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2131201760"/>
+        <c:crossAx val="-2128010880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2104,11 +1974,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2131121616"/>
-        <c:axId val="-2131118544"/>
+        <c:axId val="-2128183744"/>
+        <c:axId val="-2128181024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2131121616"/>
+        <c:axId val="-2128183744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2151,7 +2021,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2131118544"/>
+        <c:crossAx val="-2128181024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2159,7 +2029,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2131118544"/>
+        <c:axId val="-2128181024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2299,7 +2169,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2131121616"/>
+        <c:crossAx val="-2128183744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2878,8 +2748,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2132897472"/>
-        <c:axId val="-2131115872"/>
+        <c:axId val="-2128456384"/>
+        <c:axId val="-2128492912"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3343,11 +3213,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2131139264"/>
-        <c:axId val="-2131137408"/>
+        <c:axId val="-2128519488"/>
+        <c:axId val="-2128513360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2132897472"/>
+        <c:axId val="-2128456384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3454,7 +3324,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2131115872"/>
+        <c:crossAx val="-2128492912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3462,7 +3332,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2131115872"/>
+        <c:axId val="-2128492912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3585,12 +3455,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2132897472"/>
+        <c:crossAx val="-2128456384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2131137408"/>
+        <c:axId val="-2128513360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3631,7 +3501,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3692,12 +3561,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2131139264"/>
+        <c:crossAx val="-2128519488"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2131139264"/>
+        <c:axId val="-2128519488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3707,7 +3576,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131137408"/>
+        <c:crossAx val="-2128513360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3724,7 +3593,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4011,11 +3879,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2130972352"/>
-        <c:axId val="-2130966064"/>
+        <c:axId val="2144562800"/>
+        <c:axId val="2144552272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2130972352"/>
+        <c:axId val="2144562800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4058,7 +3926,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2130966064"/>
+        <c:crossAx val="2144552272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4066,7 +3934,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2130966064"/>
+        <c:axId val="2144552272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4117,7 +3985,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2130972352"/>
+        <c:crossAx val="2144562800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4552,11 +4420,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2133996784"/>
-        <c:axId val="-2130917008"/>
+        <c:axId val="2144610768"/>
+        <c:axId val="2144619168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2133996784"/>
+        <c:axId val="2144610768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4599,7 +4467,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2130917008"/>
+        <c:crossAx val="2144619168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4608,7 +4476,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2130917008"/>
+        <c:axId val="2144619168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4659,7 +4527,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133996784"/>
+        <c:crossAx val="2144610768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5084,11 +4952,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2133340512"/>
-        <c:axId val="-2133346352"/>
+        <c:axId val="2147060528"/>
+        <c:axId val="2147063360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2133340512"/>
+        <c:axId val="2147060528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5131,7 +4999,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133346352"/>
+        <c:crossAx val="2147063360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5139,7 +5007,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2133346352"/>
+        <c:axId val="2147063360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5190,7 +5058,437 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2133340512"/>
+        <c:crossAx val="2147060528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.134508979916836"/>
+          <c:y val="0.162630057803468"/>
+          <c:w val="0.864873927275945"/>
+          <c:h val="0.713964544171863"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.293400884268273"/>
+                  <c:y val="-0.0290740492544815"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Residential Floor'!$F$101:$F$130</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>2001.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2003.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2004.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2005.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2014.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2015.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2016.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2017.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2018.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2019.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2020.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2021.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2022.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2023.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2024.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2025.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2026.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2027.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2028.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2029.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2030.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Residential Floor'!$G$101:$G$130</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.223676997024584</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25203564246133</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.282122018032924</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.331109253185067</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.407412150617336</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.448146185779991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.519876298611043</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.497627620952431</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.678163090278397</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.71413222540431</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.735531375192761</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.823224036955616</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.918836329474999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.958351079102034</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.082807533915425</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.248722714942015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2094218080"/>
+        <c:axId val="-2124116080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2094218080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2124116080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2124116080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2094218080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5479,6 +5777,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -7995,6 +8333,509 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8683,6 +9524,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8982,13 +9853,13 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="AK7" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AN7" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AP7" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:72" ht="94" customHeight="1" x14ac:dyDescent="0.25">
@@ -8998,44 +9869,44 @@
       <c r="B8">
         <v>2018</v>
       </c>
-      <c r="D8" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="34"/>
+      <c r="D8" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="35"/>
       <c r="AK8" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO8" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP8" s="35"/>
+      <c r="AR8" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="AO8" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP8" s="34"/>
-      <c r="AR8" s="32" t="s">
+      <c r="AS8" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT8" s="38"/>
+      <c r="AU8" s="38"/>
+      <c r="AV8" s="38"/>
+      <c r="AW8" s="38"/>
+      <c r="AX8" s="38"/>
+      <c r="AY8" s="38"/>
+      <c r="AZ8" s="38"/>
+      <c r="BA8" s="38"/>
+      <c r="BB8" s="38"/>
+      <c r="BC8" s="39"/>
+      <c r="BH8" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="BI8" s="35"/>
+      <c r="BJ8" s="35"/>
+      <c r="BP8" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="AS8" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="AT8" s="37"/>
-      <c r="AU8" s="37"/>
-      <c r="AV8" s="37"/>
-      <c r="AW8" s="37"/>
-      <c r="AX8" s="37"/>
-      <c r="AY8" s="37"/>
-      <c r="AZ8" s="37"/>
-      <c r="BA8" s="37"/>
-      <c r="BB8" s="37"/>
-      <c r="BC8" s="38"/>
-      <c r="BH8" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="BI8" s="34"/>
-      <c r="BJ8" s="34"/>
-      <c r="BP8" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="BQ8" s="34"/>
-      <c r="BR8" s="34"/>
-      <c r="BS8" s="34"/>
+      <c r="BQ8" s="35"/>
+      <c r="BR8" s="35"/>
+      <c r="BS8" s="35"/>
     </row>
     <row r="9" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
@@ -11201,7 +12072,7 @@
     </row>
     <row r="20" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20" s="1">
         <v>79298</v>
@@ -11410,7 +12281,7 @@
     </row>
     <row r="21" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E21">
         <f t="shared" ref="E21:V21" si="62">E20-F20</f>
@@ -11683,7 +12554,7 @@
     </row>
     <row r="22" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E22" s="9">
         <v>58973</v>
@@ -11892,7 +12763,7 @@
     </row>
     <row r="23" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E23">
         <f t="shared" ref="E23:V23" si="90">E22-F22</f>
@@ -12165,7 +13036,7 @@
     </row>
     <row r="24" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E24">
         <f>E20+E22</f>
@@ -12442,23 +13313,23 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B59" s="30" t="s">
+      <c r="C59" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C59" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -12476,18 +13347,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:BJ96"/>
+  <dimension ref="A5:AU164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H89" sqref="H89"/>
+      <selection pane="topRight" activeCell="B166" sqref="B166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12921,7 +13795,7 @@
         <v>1890.65</v>
       </c>
       <c r="AN7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.2">
@@ -14443,7 +15317,7 @@
     </row>
     <row r="33" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" s="9">
         <v>166928.13</v>
@@ -14499,7 +15373,7 @@
     </row>
     <row r="34" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D34" s="9">
         <v>115910.6</v>
@@ -14555,7 +15429,7 @@
     </row>
     <row r="35" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D35" s="9">
         <v>3662.14</v>
@@ -14611,7 +15485,7 @@
     </row>
     <row r="36" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" s="9">
         <v>6415.29</v>
@@ -14667,7 +15541,7 @@
     </row>
     <row r="37" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37" s="9">
         <v>22316.63</v>
@@ -14723,7 +15597,7 @@
     </row>
     <row r="38" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D38" s="9">
         <v>22285.61</v>
@@ -14779,7 +15653,7 @@
     </row>
     <row r="39" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D39" s="11">
         <f>D34/D$33</f>
@@ -14852,7 +15726,7 @@
     </row>
     <row r="40" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D40" s="11">
         <f t="shared" ref="D40:S43" si="21">D35/D$33</f>
@@ -14925,7 +15799,7 @@
     </row>
     <row r="41" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D41" s="11">
         <f t="shared" si="21"/>
@@ -14998,7 +15872,7 @@
     </row>
     <row r="42" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D42" s="11">
         <f t="shared" si="21"/>
@@ -15071,7 +15945,7 @@
     </row>
     <row r="43" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D43" s="11">
         <f t="shared" si="21"/>
@@ -16188,7 +17062,7 @@
     <row r="57" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="58" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D58" s="9">
         <v>117627.05</v>
@@ -16299,7 +17173,7 @@
       </c>
     </row>
     <row r="60" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="39" t="s">
+      <c r="A60" s="34" t="s">
         <v>32</v>
       </c>
       <c r="D60" s="9">
@@ -16356,7 +17230,7 @@
     </row>
     <row r="61" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D61" s="9">
         <v>5483.81</v>
@@ -16412,7 +17286,7 @@
     </row>
     <row r="62" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D62" s="9">
         <v>10580.8</v>
@@ -16468,7 +17342,7 @@
     </row>
     <row r="63" spans="1:20" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D63" s="9">
         <v>2498.2600000000002</v>
@@ -16562,7 +17436,7 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="18" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="D66">
         <v>7455409</v>
@@ -16618,7 +17492,7 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D67">
         <v>218297</v>
@@ -16674,7 +17548,7 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D68">
         <v>12822565</v>
@@ -16715,7 +17589,7 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D69" s="1">
         <v>258582</v>
@@ -16756,7 +17630,7 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D70" s="1">
         <f t="shared" ref="D70:T70" si="34">SUM(D66:T66)</f>
@@ -16829,7 +17703,7 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D71" s="1">
         <f t="shared" ref="D71:O71" si="35">SUM(D68:T68)</f>
@@ -16886,74 +17760,74 @@
         <v>28</v>
       </c>
       <c r="C72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D72" s="1">
-        <f>(D12*D39)/D66*10000</f>
+        <f t="shared" ref="D72:T72" si="36">(D12*D39)/D66*10000</f>
         <v>98.844144121565563</v>
       </c>
       <c r="E72" s="1">
-        <f>(E12*E39)/E66*10000</f>
+        <f t="shared" si="36"/>
         <v>97.980993261550907</v>
       </c>
       <c r="F72" s="1">
-        <f>(F12*F39)/F66*10000</f>
+        <f t="shared" si="36"/>
         <v>97.553197930808949</v>
       </c>
       <c r="G72" s="1">
-        <f>(G12*G39)/G66*10000</f>
+        <f t="shared" si="36"/>
         <v>98.122905581085732</v>
       </c>
       <c r="H72" s="1">
-        <f>(H12*H39)/H66*10000</f>
+        <f t="shared" si="36"/>
         <v>95.881792089478182</v>
       </c>
       <c r="I72" s="1">
-        <f>(I12*I39)/I66*10000</f>
+        <f t="shared" si="36"/>
         <v>98.729054479801306</v>
       </c>
       <c r="J72" s="1">
-        <f>(J12*J39)/J66*10000</f>
+        <f t="shared" si="36"/>
         <v>103.40159214245566</v>
       </c>
       <c r="K72" s="1">
-        <f>(K12*K39)/K66*10000</f>
+        <f t="shared" si="36"/>
         <v>104.9619085812206</v>
       </c>
       <c r="L72" s="1">
-        <f>(L12*L39)/L66*10000</f>
+        <f t="shared" si="36"/>
         <v>109.88377599221866</v>
       </c>
       <c r="M72" s="1">
-        <f>(M12*M39)/M66*10000</f>
+        <f t="shared" si="36"/>
         <v>113.73528625445866</v>
       </c>
       <c r="N72" s="1">
-        <f>(N12*N39)/N66*10000</f>
+        <f t="shared" si="36"/>
         <v>113.27547841543478</v>
       </c>
       <c r="O72" s="1">
-        <f>(O12*O39)/O66*10000</f>
+        <f t="shared" si="36"/>
         <v>117.60767727372189</v>
       </c>
       <c r="P72" s="1">
-        <f>(P12*P39)/P66*10000</f>
+        <f t="shared" si="36"/>
         <v>83.378296864682298</v>
       </c>
       <c r="Q72" s="1">
-        <f>(Q12*Q39)/Q66*10000</f>
+        <f t="shared" si="36"/>
         <v>110.01774839005122</v>
       </c>
       <c r="R72" s="1">
-        <f>(R12*R39)/R66*10000</f>
+        <f t="shared" si="36"/>
         <v>107.89398726601578</v>
       </c>
       <c r="S72" s="1">
-        <f>(S12*S39)/S66*10000</f>
+        <f t="shared" si="36"/>
         <v>101.00678177617061</v>
       </c>
       <c r="T72" s="1">
-        <f>(T12*T39)/T66*10000</f>
+        <f t="shared" si="36"/>
         <v>96.778275111607982</v>
       </c>
     </row>
@@ -16962,86 +17836,158 @@
         <v>32</v>
       </c>
       <c r="C73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D73">
-        <f>D12*D40/D67*10000</f>
+        <f t="shared" ref="D73:T73" si="37">D12*D40/D67*10000</f>
         <v>106.65628207009505</v>
       </c>
       <c r="E73">
-        <f>E12*E40/E67*10000</f>
+        <f t="shared" si="37"/>
         <v>169.275302570728</v>
       </c>
       <c r="F73">
-        <f>F12*F40/F67*10000</f>
+        <f t="shared" si="37"/>
         <v>176.18916001453186</v>
       </c>
       <c r="G73">
-        <f>G12*G40/G67*10000</f>
+        <f t="shared" si="37"/>
         <v>177.60386129219449</v>
       </c>
       <c r="H73">
-        <f>H12*H40/H67*10000</f>
+        <f t="shared" si="37"/>
         <v>146.42896723325077</v>
       </c>
       <c r="I73">
-        <f>I12*I40/I67*10000</f>
+        <f t="shared" si="37"/>
         <v>175.59107593231525</v>
       </c>
       <c r="J73">
-        <f>J12*J40/J67*10000</f>
+        <f t="shared" si="37"/>
         <v>149.77468758593082</v>
       </c>
       <c r="K73">
-        <f>K12*K40/K67*10000</f>
+        <f t="shared" si="37"/>
         <v>158.64093489196807</v>
       </c>
       <c r="L73">
-        <f>L12*L40/L67*10000</f>
+        <f t="shared" si="37"/>
         <v>194.59346652684843</v>
       </c>
       <c r="M73">
-        <f>M12*M40/M67*10000</f>
+        <f t="shared" si="37"/>
         <v>195.83285848723565</v>
       </c>
       <c r="N73">
-        <f>N12*N40/N67*10000</f>
+        <f t="shared" si="37"/>
         <v>204.74878575000218</v>
       </c>
       <c r="O73">
-        <f>O12*O40/O67*10000</f>
+        <f t="shared" si="37"/>
         <v>164.47021400400254</v>
       </c>
       <c r="P73">
-        <f>P12*P40/P67*10000</f>
+        <f t="shared" si="37"/>
         <v>144.29978235666974</v>
       </c>
       <c r="Q73">
-        <f>Q12*Q40/Q67*10000</f>
+        <f t="shared" si="37"/>
         <v>164.0708970745566</v>
       </c>
       <c r="R73">
-        <f>R12*R40/R67*10000</f>
+        <f t="shared" si="37"/>
         <v>190.45084775750891</v>
       </c>
       <c r="S73">
-        <f>S12*S40/S67*10000</f>
+        <f t="shared" si="37"/>
         <v>161.13157777524788</v>
       </c>
       <c r="T73">
-        <f>T12*T40/T67*10000</f>
+        <f t="shared" si="37"/>
         <v>165.68646393958966</v>
       </c>
     </row>
     <row r="74" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:20" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C75" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D75">
+        <f>(D56+$D$81)/population!E20</f>
+        <v>17.051980764493184</v>
+      </c>
+      <c r="E75">
+        <f>(E56+$D$81)/population!F20</f>
+        <v>15.750921218200901</v>
+      </c>
+      <c r="F75">
+        <f>(F56+$D$81)/population!G20</f>
+        <v>14.712955185311291</v>
+      </c>
+      <c r="G75">
+        <f>(G56+$D$81)/population!H20</f>
+        <v>13.637454838024109</v>
+      </c>
+      <c r="H75">
+        <f>(H56+$D$81)/population!I20</f>
+        <v>12.381294016222931</v>
+      </c>
+      <c r="I75">
+        <f>(I56+$D$81)/population!J20</f>
+        <v>11.33278942461212</v>
+      </c>
+      <c r="J75">
+        <f>(J56+$D$81)/population!K20</f>
+        <v>10.247086366609642</v>
+      </c>
+      <c r="K75">
+        <f>(K56+$D$81)/population!L20</f>
+        <v>9.1913558820495513</v>
+      </c>
+      <c r="L75">
+        <f>(L56+$D$81)/population!M20</f>
+        <v>8.1208893909392277</v>
+      </c>
+      <c r="M75">
+        <f>(M56+$D$81)/population!N20</f>
+        <v>7.3802633988550888</v>
+      </c>
+      <c r="N75">
+        <f>(N56+$D$81)/population!O20</f>
+        <v>6.4739162548514377</v>
+      </c>
+      <c r="O75">
+        <f>(O56+$D$81)/population!P20</f>
+        <v>5.7270454825087276</v>
+      </c>
+      <c r="P75">
+        <f>(P56+$D$81)/population!Q20</f>
+        <v>5.0170559965878923</v>
+      </c>
+      <c r="Q75">
+        <f>(Q56+$D$81)/population!R20</f>
+        <v>4.5540125374748079</v>
+      </c>
+      <c r="R75">
+        <f>(R56+$D$81)/population!S20</f>
+        <v>4.1572156190309197</v>
+      </c>
+      <c r="S75">
+        <f>(S56+$D$81)/population!T20</f>
+        <v>3.8498626968787559</v>
+      </c>
+      <c r="T75">
+        <f>(T56+$D$81)/population!U20</f>
+        <v>3.5965026502588011</v>
+      </c>
+    </row>
     <row r="76" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="19" t="s">
         <v>44</v>
       </c>
       <c r="D76">
-        <f>(D56+D81)/population!E20</f>
-        <v>17.051980764493184</v>
+        <f>(D56)/population!E20</f>
+        <v>16.269085861721361</v>
       </c>
       <c r="E76">
         <f>E56/population!F20</f>
@@ -17113,67 +18059,67 @@
         <v>38</v>
       </c>
       <c r="D77">
-        <f t="shared" ref="D77:S77" si="36">D56/D22</f>
+        <f t="shared" ref="D77:S77" si="38">D56/D22</f>
         <v>2.2614831629891818</v>
       </c>
       <c r="E77">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2.101521083444589</v>
       </c>
       <c r="F77">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.9788595639599302</v>
       </c>
       <c r="G77">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.8993725761300928</v>
       </c>
       <c r="H77">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.8067470114886028</v>
       </c>
       <c r="I77">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.7252985351865995</v>
       </c>
       <c r="J77">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.6716077843959312</v>
       </c>
       <c r="K77">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.5918727634148249</v>
       </c>
       <c r="L77">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.474526604256144</v>
       </c>
       <c r="M77">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.4697495270775955</v>
       </c>
       <c r="N77">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.4202649419249422</v>
       </c>
       <c r="O77">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.4015018329665736</v>
       </c>
       <c r="P77">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.4288534055586721</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1.6433182955360186</v>
       </c>
       <c r="R77">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2.0462961337196246</v>
       </c>
       <c r="S77">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>3.0499850961504298</v>
       </c>
       <c r="T77" t="e">
@@ -17186,67 +18132,67 @@
         <v>42</v>
       </c>
       <c r="D78">
-        <f t="shared" ref="D78:S78" si="37">D12/D24</f>
+        <f t="shared" ref="D78:S78" si="39">D12/D24</f>
         <v>4.5078780191923506</v>
       </c>
       <c r="E78">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>3.5338778794705115</v>
       </c>
       <c r="F78">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>3.2051285492802593</v>
       </c>
       <c r="G78">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>2.7616462337223879</v>
       </c>
       <c r="H78">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>2.785670677978016</v>
       </c>
       <c r="I78">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>2.6042711536715029</v>
       </c>
       <c r="J78">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.9060924401785573</v>
       </c>
       <c r="K78">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.5380164803049379</v>
       </c>
       <c r="L78">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>2.0364832892800355</v>
       </c>
       <c r="M78">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.6702713175196835</v>
       </c>
       <c r="N78">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>2.1011247964016162</v>
       </c>
       <c r="O78">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.0605556849391362</v>
       </c>
       <c r="P78">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.9362112973134158</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.252972647922266</v>
       </c>
       <c r="R78">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.3070033699224146</v>
       </c>
       <c r="S78">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1.2665519728704078</v>
       </c>
     </row>
@@ -17258,220 +18204,220 @@
         <v>46</v>
       </c>
       <c r="D79" s="14">
-        <f t="shared" ref="D79:S79" si="38">(D16-D56)/D16</f>
+        <f t="shared" ref="D79:S79" si="40">(D16-D56)/D16</f>
         <v>6.2216977229373319E-2</v>
       </c>
       <c r="E79" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>9.2160316215887286E-2</v>
       </c>
       <c r="F79" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.11062312452564875</v>
       </c>
       <c r="G79" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.11967731020687486</v>
       </c>
       <c r="H79" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.14718735844757905</v>
       </c>
       <c r="I79" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.16306805748707714</v>
       </c>
       <c r="J79" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.18780396981357714</v>
       </c>
       <c r="K79" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.23045266029885178</v>
       </c>
       <c r="L79" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.27947668463315922</v>
       </c>
       <c r="M79" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.30005920827555316</v>
       </c>
       <c r="N79" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.35661779356829598</v>
       </c>
       <c r="O79" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.40153455120750986</v>
       </c>
       <c r="P79" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.44780794472777447</v>
       </c>
       <c r="Q79" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.47846396317971263</v>
       </c>
       <c r="R79" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.50593258321382795</v>
       </c>
       <c r="S79" s="14">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.53045626305279592</v>
       </c>
     </row>
-    <row r="81" spans="1:62" ht="32" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:19" ht="32" x14ac:dyDescent="0.2">
       <c r="C81" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D81">
         <f>3.6*population!AQ20</f>
         <v>62082</v>
       </c>
     </row>
-    <row r="84" spans="1:62" ht="32" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:19" ht="32" x14ac:dyDescent="0.2">
       <c r="C84" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D84" s="3">
         <f>D59*10^8/D47/10^4</f>
         <v>7202.5752812292412</v>
       </c>
       <c r="E84" s="3">
-        <f t="shared" ref="E84:S84" si="39">E59*10^8/E47/10^4</f>
+        <f t="shared" ref="E84:S84" si="41">E59*10^8/E47/10^4</f>
         <v>6473.4754536181063</v>
       </c>
       <c r="F84" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5933.2884548672428</v>
       </c>
       <c r="G84" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5849.7551344511603</v>
       </c>
       <c r="H84" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5429.9311519099037</v>
       </c>
       <c r="I84" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>4993.1745483013756</v>
       </c>
       <c r="J84" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>4725.0221147482343</v>
       </c>
       <c r="K84" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>4459.3547662473084</v>
       </c>
       <c r="L84" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3575.5524385399208</v>
       </c>
       <c r="M84" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3645.1827509685481</v>
       </c>
       <c r="N84" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3119.2511405473733</v>
       </c>
       <c r="O84" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2936.9625571435572</v>
       </c>
       <c r="P84" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2548.6097086655227</v>
       </c>
       <c r="Q84" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2197.3481178756065</v>
       </c>
       <c r="R84" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2091.7159551115483</v>
       </c>
       <c r="S84" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2016.7513008588803</v>
       </c>
     </row>
-    <row r="85" spans="1:62" ht="32" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:19" ht="32" x14ac:dyDescent="0.2">
       <c r="C85" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D85" s="3">
         <f>D84*D56*10^4/10^8</f>
         <v>929208.53744620003</v>
       </c>
       <c r="E85" s="3">
-        <f t="shared" ref="E85:H85" si="40">E84*E56*10^4/10^8</f>
+        <f t="shared" ref="E85:H85" si="42">E84*E56*10^4/10^8</f>
         <v>746110.79729043192</v>
       </c>
       <c r="F85" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>617153.22400943364</v>
       </c>
       <c r="G85" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>546932.19289241615</v>
       </c>
       <c r="H85" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>444843.45563643891</v>
       </c>
       <c r="I85" s="3">
-        <f t="shared" ref="I85" si="41">I84*I56*10^4/10^8</f>
+        <f t="shared" ref="I85" si="43">I84*I56*10^4/10^8</f>
         <v>359895.91831739596</v>
       </c>
       <c r="J85" s="3">
-        <f t="shared" ref="J85" si="42">J84*J56*10^4/10^8</f>
+        <f t="shared" ref="J85" si="44">J84*J56*10^4/10^8</f>
         <v>294958.25369546341</v>
       </c>
       <c r="K85" s="3">
-        <f t="shared" ref="K85:L85" si="43">K84*K56*10^4/10^8</f>
+        <f t="shared" ref="K85:L85" si="45">K84*K56*10^4/10^8</f>
         <v>236734.10122293574</v>
       </c>
       <c r="L85" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>158999.76134770285</v>
       </c>
       <c r="M85" s="3">
-        <f t="shared" ref="M85" si="44">M84*M56*10^4/10^8</f>
+        <f t="shared" ref="M85" si="46">M84*M56*10^4/10^8</f>
         <v>140487.35195961926</v>
       </c>
       <c r="N85" s="3">
-        <f t="shared" ref="N85" si="45">N84*N56*10^4/10^8</f>
+        <f t="shared" ref="N85" si="47">N84*N56*10^4/10^8</f>
         <v>98340.515502482755</v>
       </c>
       <c r="O85" s="3">
-        <f t="shared" ref="O85:P85" si="46">O84*O56*10^4/10^8</f>
+        <f t="shared" ref="O85:P85" si="48">O84*O56*10^4/10^8</f>
         <v>76315.997170462535</v>
       </c>
       <c r="P85" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>53586.774813201679</v>
       </c>
       <c r="Q85" s="3">
-        <f t="shared" ref="Q85" si="47">Q84*Q56*10^4/10^8</f>
+        <f t="shared" ref="Q85" si="49">Q84*Q56*10^4/10^8</f>
         <v>38769.781813228903</v>
       </c>
       <c r="R85" s="3">
-        <f t="shared" ref="R85" si="48">R84*R56*10^4/10^8</f>
+        <f t="shared" ref="R85" si="50">R84*R56*10^4/10^8</f>
         <v>30677.129345176338</v>
       </c>
       <c r="S85" s="3">
-        <f t="shared" ref="S85" si="49">S84*S56*10^4/10^8</f>
+        <f t="shared" ref="S85" si="51">S84*S56*10^4/10^8</f>
         <v>24797.530443740958</v>
       </c>
     </row>
-    <row r="86" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C86" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86">
         <v>74412720000000</v>
@@ -17485,405 +18431,1435 @@
       <c r="G86">
         <v>59524441442680</v>
       </c>
+      <c r="H86">
+        <f>VLOOKUP(H6,$C$101:$D$157,2,FALSE)</f>
+        <v>54036742814450.008</v>
+      </c>
+      <c r="I86">
+        <f t="shared" ref="I86:S86" si="52">VLOOKUP(I6,$C$101:$D$157,2,FALSE)</f>
+        <v>48930056616970</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="52"/>
+        <v>41303030895780</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="52"/>
+        <v>34908137086280.004</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="52"/>
+        <v>31951554667200</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="52"/>
+        <v>27023226935900</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="52"/>
+        <v>21943847481670</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="52"/>
+        <v>18731890311770</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="52"/>
+        <v>16184016090679.998</v>
+      </c>
+      <c r="Q86">
+        <f>VLOOKUP(Q6,$C$101:$D$157,2,FALSE)</f>
+        <v>13742203491790.002</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="52"/>
+        <v>12171742474830</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="52"/>
+        <v>11086312304619.998</v>
+      </c>
     </row>
-    <row r="87" spans="1:62" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:19" ht="32" x14ac:dyDescent="0.2">
+      <c r="B87" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="C87" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D87">
+        <v>96</v>
+      </c>
+      <c r="D87" s="11">
         <f>D85*10^8/D86</f>
         <v>1.2487227149420153</v>
       </c>
-      <c r="E87">
-        <f t="shared" ref="E87:G87" si="50">E85*10^8/E86</f>
+      <c r="E87" s="11">
+        <f t="shared" ref="E87:S87" si="53">E85*10^8/E86</f>
         <v>1.0828075339154255</v>
       </c>
-      <c r="F87">
-        <f t="shared" si="50"/>
+      <c r="F87" s="11">
+        <f t="shared" si="53"/>
         <v>0.95835107910203399</v>
       </c>
-      <c r="G87">
-        <f t="shared" si="50"/>
+      <c r="G87" s="11">
+        <f t="shared" si="53"/>
         <v>0.91883632947499916</v>
       </c>
+      <c r="H87" s="11">
+        <f t="shared" si="53"/>
+        <v>0.82322403695561563</v>
+      </c>
+      <c r="I87" s="11">
+        <f t="shared" si="53"/>
+        <v>0.73553137519276091</v>
+      </c>
+      <c r="J87" s="11">
+        <f t="shared" si="53"/>
+        <v>0.71413222540430987</v>
+      </c>
+      <c r="K87" s="11">
+        <f t="shared" si="53"/>
+        <v>0.67816309027839727</v>
+      </c>
+      <c r="L87" s="11">
+        <f t="shared" si="53"/>
+        <v>0.49762762095243118</v>
+      </c>
+      <c r="M87" s="11">
+        <f t="shared" si="53"/>
+        <v>0.5198762986110429</v>
+      </c>
+      <c r="N87" s="11">
+        <f t="shared" si="53"/>
+        <v>0.44814618577999116</v>
+      </c>
+      <c r="O87" s="11">
+        <f t="shared" si="53"/>
+        <v>0.40741215061733588</v>
+      </c>
+      <c r="P87" s="11">
+        <f t="shared" si="53"/>
+        <v>0.3311092531850674</v>
+      </c>
+      <c r="Q87" s="11">
+        <f t="shared" si="53"/>
+        <v>0.28212201803292403</v>
+      </c>
+      <c r="R87" s="11">
+        <f t="shared" si="53"/>
+        <v>0.25203564246132965</v>
+      </c>
+      <c r="S87" s="11">
+        <f t="shared" si="53"/>
+        <v>0.22367699702458393</v>
+      </c>
     </row>
-    <row r="95" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>97</v>
-      </c>
-      <c r="B95" t="s">
+    <row r="91" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D91">
+        <f>D76*4</f>
+        <v>65.076343446885446</v>
+      </c>
+    </row>
+    <row r="99" spans="3:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="C99" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F99" t="s">
         <v>98</v>
       </c>
-      <c r="C95" t="s">
+      <c r="G99" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D95" t="s">
+      <c r="H99" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I99" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" spans="3:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="C100" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H100" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E95" t="s">
+      <c r="I100" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="F95" t="s">
-        <v>102</v>
-      </c>
-      <c r="G95" t="s">
-        <v>103</v>
-      </c>
-      <c r="H95" t="s">
-        <v>104</v>
-      </c>
-      <c r="I95" t="s">
-        <v>105</v>
-      </c>
-      <c r="J95" t="s">
+    </row>
+    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C101" s="40">
+        <v>1960</v>
+      </c>
+      <c r="D101" s="41">
+        <v>147010000000</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101" s="41">
+        <v>2001</v>
+      </c>
+      <c r="G101" s="12">
+        <f>VLOOKUP(F101,$J$101:$K$116,2,FALSE)</f>
+        <v>0.22367699702458393</v>
+      </c>
+      <c r="H101" s="12">
+        <f>0.0001*($E101)^3-0.0013*($E101)^2+0.0517*$E101+0.1548</f>
+        <v>0.20529999999999998</v>
+      </c>
+      <c r="I101" s="11">
+        <f>0.2154*EXP(0.1118*E101)</f>
+        <v>0.24087948946713833</v>
+      </c>
+      <c r="J101">
+        <v>2016</v>
+      </c>
+      <c r="K101" s="11">
+        <v>1.2487227149420153</v>
+      </c>
+    </row>
+    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C102" s="40">
+        <v>1961</v>
+      </c>
+      <c r="D102" s="41">
+        <v>123230000000</v>
+      </c>
+      <c r="E102">
+        <f>E101+1</f>
+        <v>2</v>
+      </c>
+      <c r="F102" s="41">
+        <f>F101+1</f>
+        <v>2002</v>
+      </c>
+      <c r="G102" s="12">
+        <f t="shared" ref="G102:G117" si="54">VLOOKUP(F102,$J$101:$K$116,2,FALSE)</f>
+        <v>0.25203564246132965</v>
+      </c>
+      <c r="H102" s="12">
+        <f t="shared" ref="H101:H116" si="55">0.0001*$E102^3-0.0013*$E102^2+0.0517*$E102+0.1548</f>
+        <v>0.25380000000000003</v>
+      </c>
+      <c r="I102" s="11">
+        <f t="shared" ref="I102:I130" si="56">0.2154*EXP(0.1118*E102)</f>
+        <v>0.26937292686141695</v>
+      </c>
+      <c r="J102">
+        <f>J101-1</f>
+        <v>2015</v>
+      </c>
+      <c r="K102" s="11">
+        <v>1.0828075339154255</v>
+      </c>
+    </row>
+    <row r="103" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C103" s="40">
+        <v>1962</v>
+      </c>
+      <c r="D103" s="41">
+        <v>116219999999.99998</v>
+      </c>
+      <c r="E103">
+        <f t="shared" ref="E103:E137" si="57">E102+1</f>
+        <v>3</v>
+      </c>
+      <c r="F103" s="41">
+        <f t="shared" ref="F103:F137" si="58">F102+1</f>
+        <v>2003</v>
+      </c>
+      <c r="G103" s="12">
+        <f t="shared" si="54"/>
+        <v>0.28212201803292403</v>
+      </c>
+      <c r="H103" s="12">
+        <f t="shared" si="55"/>
+        <v>0.3009</v>
+      </c>
+      <c r="I103" s="11">
+        <f t="shared" si="56"/>
+        <v>0.30123682961303111</v>
+      </c>
+      <c r="J103">
+        <f t="shared" ref="J103:J116" si="59">J102-1</f>
+        <v>2014</v>
+      </c>
+      <c r="K103" s="11">
+        <v>0.95835107910203399</v>
+      </c>
+    </row>
+    <row r="104" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C104" s="40">
+        <v>1963</v>
+      </c>
+      <c r="D104" s="41">
+        <v>124829999999.99998</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="57"/>
+        <v>4</v>
+      </c>
+      <c r="F104" s="41">
+        <f t="shared" si="58"/>
+        <v>2004</v>
+      </c>
+      <c r="G104" s="12">
+        <f t="shared" si="54"/>
+        <v>0.3311092531850674</v>
+      </c>
+      <c r="H104" s="12">
+        <f t="shared" si="55"/>
+        <v>0.34720000000000001</v>
+      </c>
+      <c r="I104" s="11">
+        <f t="shared" si="56"/>
+        <v>0.33686988730680723</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="59"/>
+        <v>2013</v>
+      </c>
+      <c r="K104" s="11">
+        <v>0.91883632947499916</v>
+      </c>
+    </row>
+    <row r="105" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C105" s="40">
+        <v>1964</v>
+      </c>
+      <c r="D105" s="41">
+        <v>146990000000</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="57"/>
+        <v>5</v>
+      </c>
+      <c r="F105" s="41">
+        <f t="shared" si="58"/>
+        <v>2005</v>
+      </c>
+      <c r="G105" s="12">
+        <f t="shared" si="54"/>
+        <v>0.40741215061733588</v>
+      </c>
+      <c r="H105" s="12">
+        <f t="shared" si="55"/>
+        <v>0.39329999999999998</v>
+      </c>
+      <c r="I105" s="11">
+        <f t="shared" si="56"/>
+        <v>0.3767179501918112</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="59"/>
+        <v>2012</v>
+      </c>
+      <c r="K105" s="11">
+        <v>0.82322403695561563</v>
+      </c>
+    </row>
+    <row r="106" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C106" s="40">
+        <v>1965</v>
+      </c>
+      <c r="D106" s="41">
+        <v>173400000000</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="57"/>
+        <v>6</v>
+      </c>
+      <c r="F106" s="41">
+        <f t="shared" si="58"/>
+        <v>2006</v>
+      </c>
+      <c r="G106" s="12">
+        <f t="shared" si="54"/>
+        <v>0.44814618577999116</v>
+      </c>
+      <c r="H106" s="12">
+        <f t="shared" si="55"/>
+        <v>0.43980000000000002</v>
+      </c>
+      <c r="I106" s="11">
+        <f t="shared" si="56"/>
+        <v>0.42127960777767104</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="59"/>
+        <v>2011</v>
+      </c>
+      <c r="K106" s="11">
+        <v>0.73553137519276091</v>
+      </c>
+    </row>
+    <row r="107" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C107" s="40">
+        <v>1966</v>
+      </c>
+      <c r="D107" s="41">
+        <v>188870000000</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="57"/>
+        <v>7</v>
+      </c>
+      <c r="F107" s="41">
+        <f t="shared" si="58"/>
+        <v>2007</v>
+      </c>
+      <c r="G107" s="12">
+        <f t="shared" si="54"/>
+        <v>0.5198762986110429</v>
+      </c>
+      <c r="H107" s="12">
+        <f t="shared" si="55"/>
+        <v>0.48730000000000001</v>
+      </c>
+      <c r="I107" s="11">
+        <f t="shared" si="56"/>
+        <v>0.47111242731848496</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="59"/>
+        <v>2010</v>
+      </c>
+      <c r="K107" s="11">
+        <v>0.71413222540430987</v>
+      </c>
+    </row>
+    <row r="108" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C108" s="40">
+        <v>1967</v>
+      </c>
+      <c r="D108" s="41">
+        <v>179420000000</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="57"/>
+        <v>8</v>
+      </c>
+      <c r="F108" s="41">
+        <f t="shared" si="58"/>
+        <v>2008</v>
+      </c>
+      <c r="G108" s="12">
+        <f t="shared" si="54"/>
+        <v>0.49762762095243118</v>
+      </c>
+      <c r="H108" s="12">
+        <f t="shared" si="55"/>
+        <v>0.53639999999999999</v>
+      </c>
+      <c r="I108" s="11">
+        <f t="shared" si="56"/>
+        <v>0.52683993024188014</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="59"/>
+        <v>2009</v>
+      </c>
+      <c r="K108" s="11">
+        <v>0.67816309027839727</v>
+      </c>
+    </row>
+    <row r="109" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C109" s="40">
+        <v>1968</v>
+      </c>
+      <c r="D109" s="41">
+        <v>174410000000</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="57"/>
+        <v>9</v>
+      </c>
+      <c r="F109" s="41">
+        <f t="shared" si="58"/>
+        <v>2009</v>
+      </c>
+      <c r="G109" s="12">
+        <f t="shared" si="54"/>
+        <v>0.67816309027839727</v>
+      </c>
+      <c r="H109" s="12">
+        <f t="shared" si="55"/>
+        <v>0.58770000000000011</v>
+      </c>
+      <c r="I109" s="11">
+        <f t="shared" si="56"/>
+        <v>0.58915939381414517</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="59"/>
+        <v>2008</v>
+      </c>
+      <c r="K109" s="11">
+        <v>0.49762762095243118</v>
+      </c>
+    </row>
+    <row r="110" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C110" s="40">
+        <v>1969</v>
+      </c>
+      <c r="D110" s="41">
+        <v>196220000000</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="57"/>
+        <v>10</v>
+      </c>
+      <c r="F110" s="41">
+        <f t="shared" si="58"/>
+        <v>2010</v>
+      </c>
+      <c r="G110" s="12">
+        <f t="shared" si="54"/>
+        <v>0.71413222540430987</v>
+      </c>
+      <c r="H110" s="12">
+        <f t="shared" si="55"/>
+        <v>0.64179999999999993</v>
+      </c>
+      <c r="I110" s="11">
+        <f t="shared" si="56"/>
+        <v>0.65885057565793859</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="59"/>
+        <v>2007</v>
+      </c>
+      <c r="K110" s="11">
+        <v>0.5198762986110429</v>
+      </c>
+    </row>
+    <row r="111" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C111" s="40">
+        <v>1970</v>
+      </c>
+      <c r="D111" s="41">
+        <v>227970000000</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="57"/>
+        <v>11</v>
+      </c>
+      <c r="F111" s="41">
+        <f t="shared" si="58"/>
+        <v>2011</v>
+      </c>
+      <c r="G111" s="12">
+        <f t="shared" si="54"/>
+        <v>0.73553137519276091</v>
+      </c>
+      <c r="H111" s="12">
+        <f t="shared" si="55"/>
+        <v>0.69930000000000003</v>
+      </c>
+      <c r="I111" s="11">
+        <f t="shared" si="56"/>
+        <v>0.73678547028604668</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="59"/>
+        <v>2006</v>
+      </c>
+      <c r="K111" s="11">
+        <v>0.44814618577999116</v>
+      </c>
+    </row>
+    <row r="112" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C112" s="40">
+        <v>1971</v>
+      </c>
+      <c r="D112" s="41">
+        <v>245690000000</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="57"/>
+        <v>12</v>
+      </c>
+      <c r="F112" s="41">
+        <f t="shared" si="58"/>
+        <v>2012</v>
+      </c>
+      <c r="G112" s="12">
+        <f t="shared" si="54"/>
+        <v>0.82322403695561563</v>
+      </c>
+      <c r="H112" s="12">
+        <f t="shared" si="55"/>
+        <v>0.76080000000000014</v>
+      </c>
+      <c r="I112" s="11">
+        <f t="shared" si="56"/>
+        <v>0.82393921972752238</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="59"/>
+        <v>2005</v>
+      </c>
+      <c r="K112" s="11">
+        <v>0.40741215061733588</v>
+      </c>
+    </row>
+    <row r="113" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C113" s="40">
+        <v>1972</v>
+      </c>
+      <c r="D113" s="41">
+        <v>255240000000</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="57"/>
+        <v>13</v>
+      </c>
+      <c r="F113" s="41">
+        <f t="shared" si="58"/>
+        <v>2013</v>
+      </c>
+      <c r="G113" s="12">
+        <f t="shared" si="54"/>
+        <v>0.91883632947499916</v>
+      </c>
+      <c r="H113" s="12">
+        <f t="shared" si="55"/>
+        <v>0.82689999999999997</v>
+      </c>
+      <c r="I113" s="11">
+        <f t="shared" si="56"/>
+        <v>0.92140231476285028</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="59"/>
+        <v>2004</v>
+      </c>
+      <c r="K113" s="11">
+        <v>0.3311092531850674</v>
+      </c>
+    </row>
+    <row r="114" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C114" s="40">
+        <v>1973</v>
+      </c>
+      <c r="D114" s="41">
+        <v>275620000000</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="57"/>
+        <v>14</v>
+      </c>
+      <c r="F114" s="41">
+        <f t="shared" si="58"/>
+        <v>2014</v>
+      </c>
+      <c r="G114" s="12">
+        <f t="shared" si="54"/>
+        <v>0.95835107910203399</v>
+      </c>
+      <c r="H114" s="12">
+        <f t="shared" si="55"/>
+        <v>0.89820000000000011</v>
+      </c>
+      <c r="I114" s="11">
+        <f t="shared" si="56"/>
+        <v>1.0303942394332164</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="59"/>
+        <v>2003</v>
+      </c>
+      <c r="K114" s="11">
+        <v>0.28212201803292403</v>
+      </c>
+    </row>
+    <row r="115" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C115" s="40">
+        <v>1974</v>
+      </c>
+      <c r="D115" s="41">
+        <v>282770000000</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="57"/>
+        <v>15</v>
+      </c>
+      <c r="F115" s="41">
+        <f t="shared" si="58"/>
+        <v>2015</v>
+      </c>
+      <c r="G115" s="12">
+        <f t="shared" si="54"/>
+        <v>1.0828075339154255</v>
+      </c>
+      <c r="H115" s="12">
+        <f t="shared" si="55"/>
+        <v>0.97530000000000006</v>
+      </c>
+      <c r="I115" s="11">
+        <f t="shared" si="56"/>
+        <v>1.1522787295476022</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="59"/>
+        <v>2002</v>
+      </c>
+      <c r="K115" s="11">
+        <v>0.25203564246132965</v>
+      </c>
+    </row>
+    <row r="116" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C116" s="40">
+        <v>1975</v>
+      </c>
+      <c r="D116" s="41">
+        <v>303950000000</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="57"/>
+        <v>16</v>
+      </c>
+      <c r="F116" s="41">
+        <f t="shared" si="58"/>
+        <v>2016</v>
+      </c>
+      <c r="G116" s="12">
+        <f t="shared" si="54"/>
+        <v>1.2487227149420153</v>
+      </c>
+      <c r="H116" s="12">
+        <f t="shared" si="55"/>
+        <v>1.0588000000000002</v>
+      </c>
+      <c r="I116" s="11">
+        <f t="shared" si="56"/>
+        <v>1.2885808361061704</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="59"/>
+        <v>2001</v>
+      </c>
+      <c r="K116" s="11">
+        <v>0.22367699702458393</v>
+      </c>
+    </row>
+    <row r="117" spans="3:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C117" s="40">
+        <v>1976</v>
+      </c>
+      <c r="D117" s="41">
+        <v>298860000000</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="57"/>
+        <v>17</v>
+      </c>
+      <c r="F117" s="41">
+        <f t="shared" si="58"/>
+        <v>2017</v>
+      </c>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12">
+        <f>0.0001*$E117^3-0.0013*$E117^2+0.0517*$E117+0.1548</f>
+        <v>1.1493</v>
+      </c>
+      <c r="I117" s="11">
+        <f t="shared" si="56"/>
+        <v>1.4410060071420268</v>
+      </c>
+      <c r="M117" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C118" s="40">
+        <v>1977</v>
+      </c>
+      <c r="D118" s="41">
+        <v>325000000000</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="57"/>
+        <v>18</v>
+      </c>
+      <c r="F118" s="41">
+        <f t="shared" si="58"/>
+        <v>2018</v>
+      </c>
+      <c r="G118" s="11"/>
+      <c r="H118" s="12">
+        <f t="shared" ref="H118:H130" si="60">0.0001*$E118^3-0.0013*$E118^2+0.0517*$E118+0.1548</f>
+        <v>1.2474000000000003</v>
+      </c>
+      <c r="I118" s="11">
+        <f t="shared" si="56"/>
+        <v>1.611461426738398</v>
+      </c>
+    </row>
+    <row r="119" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C119" s="40">
+        <v>1978</v>
+      </c>
+      <c r="D119" s="41">
+        <v>367870251960</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="57"/>
+        <v>19</v>
+      </c>
+      <c r="F119" s="41">
+        <f t="shared" si="58"/>
+        <v>2019</v>
+      </c>
+      <c r="G119" s="11"/>
+      <c r="H119" s="12">
+        <f t="shared" si="60"/>
+        <v>1.3537000000000001</v>
+      </c>
+      <c r="I119" s="11">
+        <f t="shared" si="56"/>
+        <v>1.8020798782206671</v>
+      </c>
+    </row>
+    <row r="120" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C120" s="40">
+        <v>1979</v>
+      </c>
+      <c r="D120" s="41">
+        <v>410045367150</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="57"/>
+        <v>20</v>
+      </c>
+      <c r="F120" s="41">
+        <f t="shared" si="58"/>
+        <v>2020</v>
+      </c>
+      <c r="G120" s="11"/>
+      <c r="H120" s="12">
+        <f t="shared" si="60"/>
+        <v>1.4688000000000001</v>
+      </c>
+      <c r="I120" s="11">
+        <f t="shared" si="56"/>
+        <v>2.0152464301058357</v>
+      </c>
+    </row>
+    <row r="121" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C121" s="40">
+        <v>1980</v>
+      </c>
+      <c r="D121" s="41">
+        <v>458758107780</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="57"/>
+        <v>21</v>
+      </c>
+      <c r="F121" s="41">
+        <f t="shared" si="58"/>
+        <v>2021</v>
+      </c>
+      <c r="G121" s="11"/>
+      <c r="H121" s="12">
+        <f t="shared" si="60"/>
+        <v>1.5933000000000004</v>
+      </c>
+      <c r="I121" s="11">
+        <f t="shared" si="56"/>
+        <v>2.2536282787110808</v>
+      </c>
+    </row>
+    <row r="122" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C122" s="40">
+        <v>1981</v>
+      </c>
+      <c r="D122" s="41">
+        <v>493583283730</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="57"/>
+        <v>22</v>
+      </c>
+      <c r="F122" s="41">
+        <f t="shared" si="58"/>
+        <v>2022</v>
+      </c>
+      <c r="G122" s="11"/>
+      <c r="H122" s="12">
+        <f t="shared" si="60"/>
+        <v>1.7278</v>
+      </c>
+      <c r="I122" s="11">
+        <f t="shared" si="56"/>
+        <v>2.5202081208200133</v>
+      </c>
+    </row>
+    <row r="123" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C123" s="40">
+        <v>1982</v>
+      </c>
+      <c r="D123" s="41">
+        <v>537335013629.99994</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="57"/>
+        <v>23</v>
+      </c>
+      <c r="F123" s="41">
+        <f t="shared" si="58"/>
+        <v>2023</v>
+      </c>
+      <c r="G123" s="11"/>
+      <c r="H123" s="12">
+        <f t="shared" si="60"/>
+        <v>1.8729000000000002</v>
+      </c>
+      <c r="I123" s="11">
+        <f t="shared" si="56"/>
+        <v>2.8183214739742852</v>
+      </c>
+    </row>
+    <row r="124" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C124" s="40">
+        <v>1983</v>
+      </c>
+      <c r="D124" s="41">
+        <v>602092410070</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="57"/>
+        <v>24</v>
+      </c>
+      <c r="F124" s="41">
+        <f t="shared" si="58"/>
+        <v>2024</v>
+      </c>
+      <c r="G124" s="11"/>
+      <c r="H124" s="12">
+        <f t="shared" si="60"/>
+        <v>2.0292000000000003</v>
+      </c>
+      <c r="I124" s="11">
+        <f t="shared" si="56"/>
+        <v>3.1516984113518962</v>
+      </c>
+    </row>
+    <row r="125" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C125" s="40">
+        <v>1984</v>
+      </c>
+      <c r="D125" s="41">
+        <v>727850230680</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="57"/>
+        <v>25</v>
+      </c>
+      <c r="F125" s="41">
+        <f t="shared" si="58"/>
+        <v>2025</v>
+      </c>
+      <c r="G125" s="11"/>
+      <c r="H125" s="12">
+        <f t="shared" si="60"/>
+        <v>2.1972999999999998</v>
+      </c>
+      <c r="I125" s="11">
+        <f t="shared" si="56"/>
+        <v>3.524510233430064</v>
+      </c>
+    </row>
+    <row r="126" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C126" s="40">
+        <v>1985</v>
+      </c>
+      <c r="D126" s="41">
+        <v>909894802710</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="57"/>
+        <v>26</v>
+      </c>
+      <c r="F126" s="41">
+        <f t="shared" si="58"/>
+        <v>2026</v>
+      </c>
+      <c r="G126" s="11"/>
+      <c r="H126" s="12">
+        <f t="shared" si="60"/>
+        <v>2.3778000000000001</v>
+      </c>
+      <c r="I126" s="11">
+        <f t="shared" si="56"/>
+        <v>3.9414216604008283</v>
+      </c>
+    </row>
+    <row r="127" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C127" s="40">
+        <v>1986</v>
+      </c>
+      <c r="D127" s="41">
+        <v>1037615445370</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="57"/>
+        <v>27</v>
+      </c>
+      <c r="F127" s="41">
+        <f t="shared" si="58"/>
+        <v>2027</v>
+      </c>
+      <c r="G127" s="11"/>
+      <c r="H127" s="12">
+        <f t="shared" si="60"/>
+        <v>2.5712999999999999</v>
+      </c>
+      <c r="I127" s="11">
+        <f t="shared" si="56"/>
+        <v>4.4076491983847346</v>
+      </c>
+    </row>
+    <row r="128" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C128" s="40">
+        <v>1987</v>
+      </c>
+      <c r="D128" s="41">
+        <v>1217459467450</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="57"/>
+        <v>28</v>
+      </c>
+      <c r="F128" s="41">
+        <f t="shared" si="58"/>
+        <v>2028</v>
+      </c>
+      <c r="G128" s="11"/>
+      <c r="H128" s="12">
+        <f t="shared" si="60"/>
+        <v>2.7784000000000004</v>
+      </c>
+      <c r="I128" s="11">
+        <f t="shared" si="56"/>
+        <v>4.9290264097361032</v>
+      </c>
+    </row>
+    <row r="129" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C129" s="40">
+        <v>1988</v>
+      </c>
+      <c r="D129" s="41">
+        <v>1518038647670.0002</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="57"/>
+        <v>29</v>
+      </c>
+      <c r="F129" s="41">
+        <f t="shared" si="58"/>
+        <v>2029</v>
+      </c>
+      <c r="G129" s="11"/>
+      <c r="H129" s="12">
+        <f t="shared" si="60"/>
+        <v>2.9997000000000003</v>
+      </c>
+      <c r="I129" s="11">
+        <f t="shared" si="56"/>
+        <v>5.5120769041191942</v>
+      </c>
+    </row>
+    <row r="130" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C130" s="40">
+        <v>1989</v>
+      </c>
+      <c r="D130" s="41">
+        <v>1717974173480</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="57"/>
+        <v>30</v>
+      </c>
+      <c r="F130" s="41">
+        <f t="shared" si="58"/>
+        <v>2030</v>
+      </c>
+      <c r="G130" s="11"/>
+      <c r="H130" s="12">
+        <f t="shared" si="60"/>
+        <v>3.2358000000000002</v>
+      </c>
+      <c r="I130" s="11">
+        <f t="shared" si="56"/>
+        <v>6.164095963638978</v>
+      </c>
+    </row>
+    <row r="131" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C131" s="40">
+        <v>1990</v>
+      </c>
+      <c r="D131" s="41">
+        <v>1887286882720</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="57"/>
+        <v>31</v>
+      </c>
+      <c r="F131" s="41">
+        <f t="shared" si="58"/>
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="132" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C132" s="40">
+        <v>1991</v>
+      </c>
+      <c r="D132" s="41">
+        <v>2200562845800</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="57"/>
+        <v>32</v>
+      </c>
+      <c r="F132" s="41">
+        <f t="shared" si="58"/>
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="133" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C133" s="40">
+        <v>1992</v>
+      </c>
+      <c r="D133" s="41">
+        <v>2719453089970</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="57"/>
+        <v>33</v>
+      </c>
+      <c r="F133" s="41">
+        <f t="shared" si="58"/>
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="134" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C134" s="40">
+        <v>1993</v>
+      </c>
+      <c r="D134" s="41">
+        <v>3567323035810</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="57"/>
+        <v>34</v>
+      </c>
+      <c r="F134" s="41">
+        <f t="shared" si="58"/>
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="135" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C135" s="40">
+        <v>1994</v>
+      </c>
+      <c r="D135" s="41">
+        <v>4863745033380</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="57"/>
+        <v>35</v>
+      </c>
+      <c r="F135" s="41">
+        <f t="shared" si="58"/>
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="136" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C136" s="40">
+        <v>1995</v>
+      </c>
+      <c r="D136" s="41">
+        <v>6133989133670</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="57"/>
+        <v>36</v>
+      </c>
+      <c r="F136" s="41">
+        <f t="shared" si="58"/>
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="137" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C137" s="40">
+        <v>1996</v>
+      </c>
+      <c r="D137" s="41">
+        <v>7181362958670</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="57"/>
+        <v>37</v>
+      </c>
+      <c r="F137" s="41">
+        <f t="shared" si="58"/>
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="138" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C138" s="40">
+        <v>1997</v>
+      </c>
+      <c r="D138" s="41">
+        <v>7971504449180</v>
+      </c>
+    </row>
+    <row r="139" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C139" s="40">
+        <v>1998</v>
+      </c>
+      <c r="D139" s="41">
+        <v>8519550708960.001</v>
+      </c>
+    </row>
+    <row r="140" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C140" s="40">
+        <v>1999</v>
+      </c>
+      <c r="D140" s="41">
+        <v>9056437577650</v>
+      </c>
+    </row>
+    <row r="141" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C141" s="40">
+        <v>2000</v>
+      </c>
+      <c r="D141" s="41">
+        <v>10028013925340.002</v>
+      </c>
+    </row>
+    <row r="142" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C142" s="40">
+        <v>2001</v>
+      </c>
+      <c r="D142" s="41">
+        <v>11086312304619.998</v>
+      </c>
+    </row>
+    <row r="143" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C143" s="40">
+        <v>2002</v>
+      </c>
+      <c r="D143" s="41">
+        <v>12171742474830</v>
+      </c>
+    </row>
+    <row r="144" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C144" s="40">
+        <v>2003</v>
+      </c>
+      <c r="D144" s="41">
+        <v>13742203491790.002</v>
+      </c>
+    </row>
+    <row r="145" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C145" s="40">
+        <v>2004</v>
+      </c>
+      <c r="D145" s="41">
+        <v>16184016090679.998</v>
+      </c>
+    </row>
+    <row r="146" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C146" s="40">
+        <v>2005</v>
+      </c>
+      <c r="D146" s="41">
+        <v>18731890311770</v>
+      </c>
+    </row>
+    <row r="147" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C147" s="40">
+        <v>2006</v>
+      </c>
+      <c r="D147" s="41">
+        <v>21943847481670</v>
+      </c>
+    </row>
+    <row r="148" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C148" s="40">
+        <v>2007</v>
+      </c>
+      <c r="D148" s="41">
+        <v>27023226935900</v>
+      </c>
+    </row>
+    <row r="149" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C149" s="40">
+        <v>2008</v>
+      </c>
+      <c r="D149" s="41">
+        <v>31951554667200</v>
+      </c>
+    </row>
+    <row r="150" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C150" s="40">
+        <v>2009</v>
+      </c>
+      <c r="D150" s="41">
+        <v>34908137086280.004</v>
+      </c>
+    </row>
+    <row r="151" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C151" s="40">
+        <v>2010</v>
+      </c>
+      <c r="D151" s="41">
+        <v>41303030895780</v>
+      </c>
+    </row>
+    <row r="152" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C152" s="40">
+        <v>2011</v>
+      </c>
+      <c r="D152" s="41">
+        <v>48930056616970</v>
+      </c>
+    </row>
+    <row r="153" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C153" s="40">
+        <v>2012</v>
+      </c>
+      <c r="D153" s="41">
+        <v>54036742814450.008</v>
+      </c>
+    </row>
+    <row r="154" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C154" s="40">
+        <v>2013</v>
+      </c>
+      <c r="D154" s="41">
+        <v>59524441442680</v>
+      </c>
+    </row>
+    <row r="155" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C155" s="40">
+        <v>2014</v>
+      </c>
+      <c r="D155" s="41">
+        <v>64397404820340</v>
+      </c>
+    </row>
+    <row r="156" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C156" s="40">
+        <v>2015</v>
+      </c>
+      <c r="D156" s="41">
+        <v>68905209275050</v>
+      </c>
+    </row>
+    <row r="157" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C157" s="40">
+        <v>2016</v>
+      </c>
+      <c r="D157" s="41">
+        <v>74412720000000</v>
+      </c>
+    </row>
+    <row r="160" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B160" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="K95" t="s">
+      <c r="C160" s="43"/>
+      <c r="D160" s="43"/>
+      <c r="E160" s="43"/>
+      <c r="F160" s="43"/>
+      <c r="G160" s="43"/>
+      <c r="H160" s="43"/>
+      <c r="I160" s="43"/>
+      <c r="J160" s="43"/>
+      <c r="K160" s="43"/>
+      <c r="L160" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="L95" t="s">
-        <v>108</v>
-      </c>
-      <c r="M95" t="s">
-        <v>109</v>
-      </c>
-      <c r="N95" t="s">
-        <v>110</v>
-      </c>
-      <c r="O95" t="s">
-        <v>111</v>
-      </c>
-      <c r="P95" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>113</v>
-      </c>
-      <c r="R95" t="s">
-        <v>114</v>
-      </c>
-      <c r="S95" t="s">
-        <v>115</v>
-      </c>
-      <c r="T95" t="s">
-        <v>116</v>
-      </c>
-      <c r="U95" t="s">
-        <v>117</v>
-      </c>
-      <c r="V95" t="s">
-        <v>118</v>
-      </c>
-      <c r="W95" t="s">
-        <v>119</v>
-      </c>
-      <c r="X95" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y95" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z95" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA95" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB95" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC95" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD95" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE95" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF95" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG95" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH95" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI95" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ95" t="s">
-        <v>132</v>
-      </c>
-      <c r="AK95" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL95" t="s">
-        <v>134</v>
-      </c>
-      <c r="AM95" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN95" t="s">
-        <v>136</v>
-      </c>
-      <c r="AO95" t="s">
-        <v>137</v>
-      </c>
-      <c r="AP95" t="s">
-        <v>138</v>
-      </c>
-      <c r="AQ95" t="s">
-        <v>139</v>
-      </c>
-      <c r="AR95" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS95" t="s">
-        <v>141</v>
-      </c>
-      <c r="AT95" t="s">
-        <v>142</v>
-      </c>
-      <c r="AU95" t="s">
-        <v>143</v>
-      </c>
-      <c r="AV95" t="s">
-        <v>144</v>
-      </c>
-      <c r="AW95" t="s">
-        <v>145</v>
-      </c>
-      <c r="AX95" t="s">
-        <v>146</v>
-      </c>
-      <c r="AY95" t="s">
-        <v>147</v>
-      </c>
-      <c r="AZ95" t="s">
-        <v>148</v>
-      </c>
-      <c r="BA95" t="s">
-        <v>149</v>
-      </c>
-      <c r="BB95" t="s">
-        <v>150</v>
-      </c>
-      <c r="BC95" t="s">
-        <v>151</v>
-      </c>
-      <c r="BD95" t="s">
-        <v>152</v>
-      </c>
-      <c r="BE95" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF95" t="s">
-        <v>154</v>
-      </c>
-      <c r="BG95" t="s">
-        <v>155</v>
-      </c>
-      <c r="BH95" t="s">
-        <v>156</v>
-      </c>
-      <c r="BI95" t="s">
-        <v>157</v>
-      </c>
-      <c r="BJ95" t="s">
-        <v>158</v>
-      </c>
+      <c r="M160" s="44"/>
+      <c r="N160" s="44"/>
+      <c r="O160" s="44"/>
+      <c r="P160" s="44"/>
+      <c r="Q160" s="44"/>
     </row>
-    <row r="96" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>93</v>
-      </c>
-      <c r="B96" t="s">
-        <v>94</v>
-      </c>
-      <c r="C96" t="s">
-        <v>95</v>
-      </c>
-      <c r="D96" t="s">
-        <v>96</v>
-      </c>
-      <c r="E96">
-        <v>147010000000</v>
-      </c>
-      <c r="F96">
-        <v>123230000000</v>
-      </c>
-      <c r="G96">
-        <v>116219999999.99998</v>
-      </c>
-      <c r="H96">
-        <v>124829999999.99998</v>
-      </c>
-      <c r="I96">
-        <v>146990000000</v>
-      </c>
-      <c r="J96">
-        <v>173400000000</v>
-      </c>
-      <c r="K96">
-        <v>188870000000</v>
-      </c>
-      <c r="L96">
-        <v>179420000000</v>
-      </c>
-      <c r="M96">
-        <v>174410000000</v>
-      </c>
-      <c r="N96">
-        <v>196220000000</v>
-      </c>
-      <c r="O96">
-        <v>227970000000</v>
-      </c>
-      <c r="P96">
-        <v>245690000000</v>
-      </c>
-      <c r="Q96">
-        <v>255240000000</v>
-      </c>
-      <c r="R96">
-        <v>275620000000</v>
-      </c>
-      <c r="S96">
-        <v>282770000000</v>
-      </c>
-      <c r="T96">
-        <v>303950000000</v>
-      </c>
-      <c r="U96">
-        <v>298860000000</v>
-      </c>
-      <c r="V96">
-        <v>325000000000</v>
-      </c>
-      <c r="W96">
-        <v>367870251960</v>
-      </c>
-      <c r="X96">
-        <v>410045367150</v>
-      </c>
-      <c r="Y96">
-        <v>458758107780</v>
-      </c>
-      <c r="Z96">
-        <v>493583283730</v>
-      </c>
-      <c r="AA96">
-        <v>537335013629.99994</v>
-      </c>
-      <c r="AB96">
-        <v>602092410070</v>
-      </c>
-      <c r="AC96">
-        <v>727850230680</v>
-      </c>
-      <c r="AD96">
-        <v>909894802710</v>
-      </c>
-      <c r="AE96">
-        <v>1037615445370</v>
-      </c>
-      <c r="AF96">
-        <v>1217459467450</v>
-      </c>
-      <c r="AG96">
-        <v>1518038647670.0002</v>
-      </c>
-      <c r="AH96">
-        <v>1717974173480</v>
-      </c>
-      <c r="AI96">
-        <v>1887286882720</v>
-      </c>
-      <c r="AJ96">
-        <v>2200562845800</v>
-      </c>
-      <c r="AK96">
-        <v>2719453089970</v>
-      </c>
-      <c r="AL96">
-        <v>3567323035810</v>
-      </c>
-      <c r="AM96">
-        <v>4863745033380</v>
-      </c>
-      <c r="AN96">
-        <v>6133989133670</v>
-      </c>
-      <c r="AO96">
-        <v>7181362958670</v>
-      </c>
-      <c r="AP96">
-        <v>7971504449180</v>
-      </c>
-      <c r="AQ96">
-        <v>8519550708960.001</v>
-      </c>
-      <c r="AR96">
-        <v>9056437577650</v>
-      </c>
-      <c r="AS96">
-        <v>10028013925340.002</v>
-      </c>
-      <c r="AT96">
-        <v>11086312304619.998</v>
-      </c>
-      <c r="AU96">
-        <v>12171742474830</v>
-      </c>
-      <c r="AV96">
-        <v>13742203491790.002</v>
-      </c>
-      <c r="AW96">
-        <v>16184016090679.998</v>
-      </c>
-      <c r="AX96">
-        <v>18731890311770</v>
-      </c>
-      <c r="AY96">
-        <v>21943847481670</v>
-      </c>
-      <c r="AZ96">
-        <v>27023226935900</v>
-      </c>
-      <c r="BA96">
-        <v>31951554667200</v>
-      </c>
-      <c r="BB96">
-        <v>34908137086280.004</v>
-      </c>
-      <c r="BC96">
-        <v>41303030895780</v>
-      </c>
-      <c r="BD96">
-        <v>48930056616970</v>
-      </c>
-      <c r="BE96">
-        <v>54036742814450.008</v>
-      </c>
-      <c r="BF96">
-        <v>59524441442680</v>
-      </c>
-      <c r="BG96">
-        <v>64397404820340</v>
-      </c>
-      <c r="BH96">
-        <v>68905209275050</v>
-      </c>
-      <c r="BI96">
-        <v>74412720000000</v>
-      </c>
+    <row r="161" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B161" s="43"/>
+      <c r="C161" s="43"/>
+      <c r="D161" s="43"/>
+      <c r="E161" s="43"/>
+      <c r="F161" s="43"/>
+      <c r="G161" s="43"/>
+      <c r="H161" s="43"/>
+      <c r="I161" s="43"/>
+      <c r="J161" s="43"/>
+      <c r="K161" s="43"/>
+    </row>
+    <row r="162" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B162" s="43"/>
+      <c r="C162" s="43"/>
+      <c r="D162" s="43"/>
+      <c r="E162" s="43"/>
+      <c r="F162" s="43"/>
+      <c r="G162" s="43"/>
+      <c r="H162" s="43"/>
+      <c r="I162" s="43"/>
+      <c r="J162" s="43"/>
+      <c r="K162" s="43"/>
+    </row>
+    <row r="163" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B163" s="43"/>
+      <c r="C163" s="43"/>
+      <c r="D163" s="43"/>
+      <c r="E163" s="43"/>
+      <c r="F163" s="43"/>
+      <c r="G163" s="43"/>
+      <c r="H163" s="43"/>
+      <c r="I163" s="43"/>
+      <c r="J163" s="43"/>
+      <c r="K163" s="43"/>
+    </row>
+    <row r="164" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B164" s="43"/>
+      <c r="C164" s="43"/>
+      <c r="D164" s="43"/>
+      <c r="E164" s="43"/>
+      <c r="F164" s="43"/>
+      <c r="G164" s="43"/>
+      <c r="H164" s="43"/>
+      <c r="I164" s="43"/>
+      <c r="J164" s="43"/>
+      <c r="K164" s="43"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B160:K164"/>
+    <mergeCell ref="L160:Q160"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="L160" r:id="rId1"/>
+    <hyperlink ref="M160" r:id="rId2" display="http://m.ifeng.com/house/shareNews?fromType=vampire&amp;aid=sub_14838602&amp;channelId="/>
+    <hyperlink ref="N160" r:id="rId3" display="http://m.ifeng.com/house/shareNews?fromType=vampire&amp;aid=sub_14838602&amp;channelId="/>
+    <hyperlink ref="O160" r:id="rId4" display="http://m.ifeng.com/house/shareNews?fromType=vampire&amp;aid=sub_14838602&amp;channelId="/>
+    <hyperlink ref="P160" r:id="rId5" display="http://m.ifeng.com/house/shareNews?fromType=vampire&amp;aid=sub_14838602&amp;channelId="/>
+    <hyperlink ref="Q160" r:id="rId6" display="http://m.ifeng.com/house/shareNews?fromType=vampire&amp;aid=sub_14838602&amp;channelId="/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId7"/>
+  <legacyDrawing r:id="rId8"/>
 </worksheet>
 </file>